--- a/news_data/2020_12.xlsx
+++ b/news_data/2020_12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,27 +22,102 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>관광도시 제주도, ‘코로나19’에 멈춰섰다</t>
+  </si>
+  <si>
+    <t>올해 크리스마스에 제주도 가는 관광객, 작년 절반으로 '뚝'</t>
+  </si>
+  <si>
+    <t>전 제주도의원 소유 관광시설 불법 건축물 모두 철거돼</t>
+  </si>
+  <si>
+    <t>제주도관광협회 사업지원분과위, 제주소년원에 TV 3대 기탁</t>
+  </si>
+  <si>
+    <t>제주도, 스포츠시설·관광명소 특별방역 대책 24일 시행</t>
+  </si>
+  <si>
+    <t>제주도, 세계유산본부 공영관광지 6곳 임시 출입통제</t>
+  </si>
+  <si>
+    <t>KST모빌리티, 제주도 이동수단과 숙박·관광 콘텐츠 결합시킨다</t>
+  </si>
+  <si>
+    <t>제주도-아이콘루프, 블록체인 기반 관광방역 시스템 본격 가동</t>
+  </si>
+  <si>
+    <t>제주도, 한라산‧성산일출봉 등 공영관광지 6곳 임시 폐쇄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제주도 하반기 우수관광사업체 20곳 지정 </t>
+  </si>
+  <si>
+    <t>제주도, '5인이상 제한' 관광객 예약취소 위약금 정부에 요청</t>
+  </si>
+  <si>
+    <t>진에어, 국제선 관광비행 운항…日·제주도 상공 돈다</t>
+  </si>
+  <si>
+    <t>제주도, 추천 웰니스관광지 신청 3곳 모두 재지정</t>
+  </si>
+  <si>
+    <t>제주도, 도민·관광객 사회적 거리두기 2단계 수칙 준수 ‘양호’</t>
+  </si>
+  <si>
+    <t>"제주도, 돌고래 관광업체의 감염병예방법 위반 단속해야"</t>
+  </si>
+  <si>
+    <t>확진자 폭증에 제주도 관광객 '반토막'</t>
+  </si>
+  <si>
+    <t>제주 관광객 코로나 진단검사 의무화,제주도 정부와 협의</t>
+  </si>
+  <si>
+    <t>제주도, 연말연시 관광사업체 방역 특별점검 실시</t>
+  </si>
+  <si>
+    <t>광양시관광협의회-제주도 여행사 등, 관광 활성화 업무협약</t>
+  </si>
+  <si>
+    <t>제주도, 중문 관광단지 일원 하수관로 정비사업 대대적 추진</t>
+  </si>
+  <si>
+    <t>제주도 관광협회–블루인스보험중개(주) MOU체결</t>
+  </si>
+  <si>
+    <t>제주도관광협회–블루인스보험중개(주) MOU 체결</t>
+  </si>
+  <si>
+    <t>제주도 확진자 방문 관광지 5곳 포함 시장·면세점 등 공개</t>
+  </si>
+  <si>
+    <t>제주도, 올해 주민참여 관광 꽃길 조성 우수 읍·면·동 9곳 선정</t>
+  </si>
+  <si>
+    <t>제주도, 청각장애인 위해 공영관광지 수어해설영상 제공</t>
+  </si>
+  <si>
+    <t>제주도로 ‘코로나 탈출 나들이’ 간 관광객 9명 전원 확진</t>
+  </si>
+  <si>
+    <t>제주도, 코로나19 '확진자 방문' 관광지 등 7곳 공개</t>
+  </si>
+  <si>
+    <t>수도권 코로나 확산으로 제주도 관광 '주춤' ... 평균 여행객 4만명 → 2.7만...</t>
+  </si>
+  <si>
+    <t>제주도, 연말연시 관광업체·주요 관광지 방역 특별점검</t>
+  </si>
+  <si>
+    <t>제주도 공영 관광지에 수어해설영상 첫 배포</t>
+  </si>
+  <si>
     <t>제주도, 관광사업체 방역 특별 점검</t>
   </si>
   <si>
-    <t>제주도로 ‘코로나 탈출 나들이’ 간 관광객 9명 전원 확진</t>
-  </si>
-  <si>
-    <t>제주도, 코로나19 '확진자 방문' 관광지 등 7곳 공개</t>
-  </si>
-  <si>
-    <t>수도권 코로나 확산으로 제주도 관광 '주춤' ... 평균 여행객 4만명 → 2.7만...</t>
-  </si>
-  <si>
     <t>제주도 관광지 수어해설영상 제작</t>
   </si>
   <si>
-    <t>제주도, 연말연시 관광업체·주요 관광지 방역 특별점검</t>
-  </si>
-  <si>
-    <t>제주도 공영 관광지에 수어해설영상 첫 배포</t>
-  </si>
-  <si>
     <t>제주도의회 문화관광체육위원회, 2021년도 제주도 예산안 계수조정 결과</t>
   </si>
   <si>
@@ -52,25 +127,94 @@
     <t>제주도관광협회 공정 판매 플랫폼 '탐나오', 20일까지 무료 감귤 따기 체험 등...</t>
   </si>
   <si>
-    <t>제주도, 관광사업체 방역 특별 점검 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항뉴스데스크제주도, 관광사업체 방역 특별 점검 오승철2020년 12월 06일 20시 10분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 코로나19 확산에 따라 제주도는 관광공사, 관광협회 등과 합동으로 공항과 항만, 관광지, 관광 업소를 대상으로 내년 1월까지 방역 점검을 벌입니다. 관광객들이 많이 찾는 공항과 성산일출봉, 중문관광단지, 협재해수욕장 등에서 마스크 착용을 홍보하고 실내 관광업소에서는 주기적인 방역 소독과 출입자 명부 작성, 발열 검사 여부 등을 집중 점검합니다. 또, 영세 관광 업체에는 발열 검사기와 소독 약품을 배부할 방침입니다. 오승철ogija@jejumbc.com 최신 뉴스 뉴스투데이2022년 10월 04일 08시 13분 24초 탐라문화제 3년 만에 대면행사...10월 6일~10일2022년 10월 04일 07시 20분 00초 동료 해녀 살린 제주의용소방대원 전국대회 1위2022년 10월 04일 07시 20분 00초 현병찬 선생 제41회 세종문화상 수상자 선정2022년 10월 04일 07시 20분 00초 국토부, JDC 정원 28명 감축 추진2022년 10월 04일 07시 20분 00초 오늘 낮까지 '가을비'‥내일부터 기온 내려가 선선2022년 10월 04일 07시 20분 00초TK신공항 밀어주는데.. 가덕도는 조용2022년 10월 04일 07시 20분 00초연중기획-주민들이 주인공으로 등장(리포트)2022년 10월 04일 07시 20분 00초'사상검증 논란' 4.3 수형인 68명 오늘 선고2022년 10월 04일 07시 20분 00초4.3길 사실상 방치?2022년 10월 04일 07시 20분 00초제주도, 관광사업체 방역 특별 점검 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
+    <t>올해 크리스마스에 제주도 가는 관광객, 작년 절반으로 '뚝' - 조선비즈</t>
+  </si>
+  <si>
+    <t>전 제주도의원 소유 관광시설 불법 건축물 모두 철거돼 &lt; 사회일반 &lt; 사회 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 14:42 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도, 유상증자 불참 제주항공 신주인수권 전량 매도 제5회 제주국제현대음악제, 20~21일 제주대서 개최 2022 세계유산축전 ‘제주 화산섬과 용암동굴’, 16일까지 진행 법원, 우도 내 삼륜 이동장치 제한 ‘정당’ 제주도 제한 정책 탄력 실업급여 신청자↓, 재취업률↑...제주 고용시장 회복세 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 전 제주도의원 소유 관광시설 불법 건축물 모두 철거돼 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사회일반 전 제주도의원 소유 관광시설 불법 건축물 모두 철거돼 기자명 이동건 기자					(dg@jejusori.net) 입력 2020.12.29 16:31 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 서귀포시 대정읍 A관광시설에 설치돼 있던 트리하우스(왼쪽). 오른쪽 사진은 트리하우스가 철거된 모습이다.제주 서귀포시 대정읍 소재 A관광시설 내 불법 건축물이 모두 철거됐다. 29일 서귀포시에 따르면 논란이 된 전직 제주도의원 K씨 소유의 A관광시설 내 소위 ‘트리하우스' 등 불법 건축물이 모두 철거됐다. 서귀포시 관계자는 “어제(28일) 현장 확인한 결과, 남아있던 트리하우스도 모두 철거됐다”고 말했다. K씨는 행정기관 허가 없이 A관광시설 내 불법 건축물 2동을 설치해 물의를 빚었다.트리하우스보다 앞서 철거된 불법건축물은 해당 관광시설 부지 내에서 연회 장소 등으로 이용해왔다. 별채는 2차 시정명령 기한인 지난달 철거됐으며, 남아있던 트리하우스는 3차 시정명령 기한인 이달 철거됐다. 한편, 해당 불법 건축물은 김태엽 서귀포시장이 음주운전 사고 적발 당시 술자리를 가졌던 장소로 밝혀지면서 물의를 일으켰다. 관련기사 전 제주도의원 K씨 불법 건축물 1동 철거…트리하우스 3차 명령 전 제주도의원 소유 관광시설 불법 건축물 ‘2차 시정명령’ 제주 전 도의원 소유 대정읍 불법건축 1차 시정명령 김태엽 내정자 ‘술자리’ 불법건축물 시정명령 예고 김태엽 내정자 ‘술자리’ 건물, 알고보니 ‘무허가 불법’ ‘음주운전’ 김태엽 내정자, 당일 불법 건축물서 ‘술자리’ 이동건 기자 dg@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 인사 제주시 2022년 하반기 사무관 6명 승진 의결 5 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 9 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 선거꾼 하나.. 선거운동 도와주고서 연봉 1억 넘는 자리 꿀꺽했구나.. 여론조사 전문가가 감사 활동 잘 할거다? 목에서 소리를 낸다고 말이 되거나 글자로 표현한다고 글이 되는 것은 아니다. 2 제주답게 만들기를~~ 3 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 4 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 5 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 6 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 7 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 8 못간다 9 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 10 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 사업지원분과위, 제주소년원에 TV 3대 기탁 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 사업지원분과위, 제주소년원에 TV 3대 기탁 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도관광협회 사업지원분과위, 제주소년원에 TV 3대 기탁 편집팀 iheadline@hanmail.net 승인 2020.12.30 17:08 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 사업 지원분과위원회(회장 고철원)는 제주소년원(원장 민근기, 한길정보통신학교)을 방문해 100만원 상당의 32인치 LED TV 3대를 전달했다. 고철원 회장은 “코로나19로 모두가 힘든 시기지만 학생들에게 작은 도움 이나마 주고 싶은 마음에 회원들과 뜻을 모았다"며 "학생들을 직접 만나 전하지 못해 아쉽지만 코로나19를 잘 이겨내길 바란다”고 말했다. 제주소년원 민근기 원장은 “코로나19 장기화로 면회와 외부활동이 제한되었지만 학생들에게 많은 관심과 손길을 전하는 지역 사회의 여러 기관과 단체에 감사하다"고 전했다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 세계유산본부 공영관광지 6곳 임시 출입통제 - 전국 &gt; 기사 - 더팩트 HOME &gt; NEWS &gt; 전국 &gt; 제주 제주도, 세계유산본부 공영관광지 6곳 임시 출입통제 입력: 2020.12.24 09:21 / 수정: 2020.12.24 09:21 24일~내년 1월 3일까지 한라산국립공원·성산일출봉·거문오름·만장굴·비자림·한란전시관 폐쇄[더팩트ㅣ제주=김용덕 기자] 제주특별자치도 세계유산본부(본부장 김대근)는 24일부터 내년 1월 3일까지 한라산국립공원, 성산일출봉, 거문오름, 만장굴, 비자림, 한란전시관 등 세계유산본부 공영관광지 6곳을 임시 출입 통제한다.특히 한라산국립공원 및 성산일출봉은 연말연시를 맞아 설경 및 새해 일출을 감상하기 위해 많은 도민과 관광객들이 방문할 것으로 예상돼 코로나19 확산 방지를 위해 불가피하게 임시 폐쇄하기로 했다.한라산 및 거문오름 예약취소에 대한 안내 문자를 발송할 예정이다.내년 1월 1일부터 시행하기로 했던 한라산탐방예약제도 1월 4일로 연기된다.김대근 세계유산본부장은 "세계유산본부 소관 공영관광지 임시 폐쇄로 한라산 및 성산일출봉 방문을 미리 계획하신 분들께는 아쉬움이 있겠지만, 코로나 상황을 극복하기 위해서는 전 국민이 동참해야하는 상황인만큼 적극 협조해주시길 바란다"고 전했다.hyejun@tf.co.kr 발로 뛰는 &lt;더팩트&gt;는 24시간 여러분의 제보를 기다립니다. ▶카카오톡: '더팩트제보' 검색 ▶이메일: jebo@tf.co.kr ▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write - 네이버 메인 더팩트 구독하고 [특종보자▶] - 그곳이 알고싶냐? [영상보기▶] AD 인기기사 실시간 TOP10 정치 경제 사회 연예</t>
+  </si>
+  <si>
+    <t>KST모빌리티, 제주도 이동수단과 숙박·관광 콘텐츠 결합시킨다 - e대한경제 본문내용 바로가기 구독신청 기사제보 판매도서 e패밀리몰 대경뮤지엄 e대한경제 i 신문초판 입찰정보 회원가입 내정보 로그인 로그아웃 11/02/2020 월요일 건설·부동산 증권 산업 금융 경제 정치 사회 레저·문화 피플 오피니언 전국 e대한경제TV search search 닫기 건설산업 정책/제도 공사계약 전문/설비 설계/감리 엔지니어링 기술 자재 인테리어 전기/통신/소방 에너지 IT/과학 국토개발 노동/안전 산업 산업일반 재계 가전 자동차 반도체 정유/화학 철강/조선 항공/해운 유통 제약/바이오 IT/통신/방송 게임/엔터 부동산 분양 도시정비 개발 재테크 부동산시장 경제 경제정책 금융 기업 증권/IB 종목뉴스 공시 정치 대통령실 국회/정당 외교/통일/국방 정치일반 사회 사회일반 법조 전국 수도권 지방 오피니언 사설 시론/논단 데스크칼럼 기고/칼럼 기자수첩 마음의창 세상만사 Q&amp;A 기획연재 기획/특집 이슈추적 연재 연구기관리포트 해외뉴스 해외건설 국제정치/사회 국제경제 국제산업 국제금융 피플 인터뷰 게시판 인사 결혼 부음 레저/문화 스포츠 건강/레저 BOOK/문화 포토 KST모빌리티, 제주도 이동수단과 숙박·관광 콘텐츠 결합시킨다 기사입력 2020-12-24 17:50:28 폰트크기 변경 내년 2월까지 ‘스마트시티 챌린지’ 실증사업 시작…친환경 마스 플랫폼 개발 [e대한경제=이근우 기자] KST모빌리티가 내년 2월까지 ‘제주 스마트시티 챌린지’ 실증사업을 진행한다. 이행열 KST모빌리티 대표이사, 김기홍 제주특별자치도 디지털융합과장 등은 지난 23일 제주도에서 실증사업을 기념하는 ‘2020 제주 스마트시티 챌린지’ 공식 론칭 행사에 참석했다. KST모빌리티가 내년 2월까지 ‘제주 스마트시티 챌린지’ 실증사업을 진행한다. 국토교통부가 주관하는 스마트시티 챌린지는 지방자치단체와 기업, 대학 등의 창의적 아이디어를 활용해 도시문제를 해결하는 솔루션 서비스를 육성·지원하는 사업이다. KST모빌리티는 제주특별자치도와 데일리블록체인, GS칼텍스, KT, 카이스트, 제주대학교, JDC 등 12곳과 컨소시엄을 구성하고 지난 5월 시민주도형 스마트허브 ‘e-3DA(삼다)’ 미래(생활) 도시로 응모해 스마트시티 챌린지 사업에 선정됐다. KST모빌리티는 e-3DA 실증사업에서 친환경 마스(MaaS, Mobility as a Service) 플랫폼 ‘그리고(GREEGO)’ 애플리케이션(앱) 개발·운영, 초소형 전기차 및 전기자전거 등 탄소중립 마이크로 모빌리티 셰어링, 수요응답형 셔틀버스 운영을 담당한다. 그리고 앱은 ‘친환경(GREEN) 이동수단(GO)을 연결하다’는 의미로 전기택시 ‘마카롱 그린’, 초소형 전기차 ‘트위지’, 전기자전거 ‘마카롱 바이크’, 전동 킥보드, 수요응답형 셔틀버스 등 친환경 퍼스트 마일부터 미들 마일, 라스트 마일 모두를 예약하고 결제하는 ‘그린 멀티모달 서비스’다. 이를 구현하기 위해 KST모빌리티는 제주도 내 GS칼텍스 주유소, GS25 편의점, 이마트 등 7곳에 전기 충전과 친환경 마이크로 모빌리티를 공유할 수 있는 스마트허브를 구축했다. 제주도민과 관광객은 1시간당 2000~3000원으로 그리고 앱에 등록된 이동수단을 이용할 수 있다. 정규홍 KST모빌리티 최고기술책임자(CTO)는 “실증 경험을 바탕으로 모빌리티와 숙박, 먹거리, 랜드마크 등 관광 콘텐츠를 결합시켜 통합 예약과 결제까지 가능한 플랫폼으로 고도화시키겠다”고 말했다. 이근우기자 gw89@〈ⓒ e대한경제신문(www.dnews.co.kr), 무단전재 및 수집, 재배포금지〉 경제부이근우 기자gw89@dnews.co.kr이근우 기자의 다른기사 보기 ▶ 구글 플레이스토어에서 'e대한경제i' 앱을 다운받으시면 - 종이신문을 스마트폰과 PC로보실 수 있습니다.      - 명품 컨텐츠가 '내손안에' e대한경제i &gt;Please activate JavaScript for write a comment in LiveRe. 사회 회사소개 광고안내 기사제보 출판사업 채용정보 개인정보취급방침 저작권규약 고충처리 고객센터 사이트맵 제호 : e대한경제 / 신문등록번호 : 서울 가00237 / 등록일자 : 2008년 10월 21일 / 발행인 : 김형철/ 편집인 : 김형철 / 청소년 보호책임자: 장세갑 발행소 : 서울시 강남구 언주로 711 건설회관 12층 / 발행일자 : 1964년 3월 2 / 구독문의 547-6494~5 기사문의 02-547-5081~4 출판문의 515-7320~2 광고문의 02-547-6496 전화번호 : 02-547-5080 e대한경제신문의 모든 콘텐츠(기사)는 저작권법의 보호를 받는 바, 무단전재, 복사, 배포 등을 금합니다. Copyright(c) DNEWS.CO.KR All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도-아이콘루프, 블록체인 기반 관광방역 시스템 본격 가동 전체기사 | SECURITY | IT | SAFETY | | 통합검색 뉴스 기자명 컨텐츠 상호검색 제품검색 클라우드 마비의 이유, 결과 그리고 ... 랜섬웨어의 발전과 진화에 맞서 IT가... Masscan 랜섬웨어, DB 서버 ... 이란 국영방송 해킹! 이란 지도자 과... 로그인 | 회원가입 | 기사제보 | 스크랩 통합검색 뉴스 기자명 컨텐츠 상호검색 제품검색 전체기사 SECURITY IT SAFETY Security World #전체기사 #시큐리티월드 #사건사고 #프리미엄 리포트 #NFT #ISEC 2022 뉴스레터 신청 시큐리티 콘텐츠 Home &gt; 전체기사 제주도-아이콘루프, 블록체인 기반 관광방역 시스템 본격 가동 |  입력 : 2020-12-21 16:52 #아이콘루프 #관광방역 #제주안심코드 #DID #블록체인 블록체인 기반의 분산ID 기술로 관광객 개인정보 유출 최소화하면서 동선 추적 가능QR코드 통한 서비스로 사용자 편의성은 물론 업주 시스템 구축 편의성까지 높여[보안뉴스 이상우 기자] 블록체인 기업 아이콘루프(대표 김종협)와 제주특별자치도가 블록체인 기반 제주형 관광방역 시스템 ‘제주안심코드’ 서비스를 시작한다. 제주안심코드는 민관협력 협약을 통해 공동 개발한 시스템으로, 지난 8월부터 공공기관 출입 확인에 해당 시스템을 활용하는 한편, 제주도청 인근 음식점 등 다수 업장을 대상으로 시범 운영을 실시했다. 시범 운영에 대한 긍정적 반응과 사업 추진 가능성을 바탕으로, 지난 10월 ‘제주형 뉴딜 종합계획’ 중 ‘안전망 강화’ 사업의 일환으로도 발표된 바 있다.[사진=아이콘루프]해당 서비스는 코로나19 등 감염병 확진자의 방문 이력과 접촉자를 신속하게 파악함으로써 집단 감염에 효과적으로 대응하기 위한 제주형 관광방역 시스템이다. 대한민국 대표 관광지인 제주도는 외부 방문객의 유입이 많고 관광객 특성상 이동 범위가 넓으며 맛집, 관광지 등 밀집도 높은 장소의 방문율이 높다. 이로 인한 방역의 공백, 확진자 발생 시 동선 추적의 어려움 등이 발생할 우려가 있어 관광객이 주로 방문하는 장소를 대상으로 출입인증 서비스를 확대하고 관광지 특성에 최적화한 지속가능형 관광방역 시스템을 구축한다는 계획이다. 또한, 블록체인 기술로 보다 편리하고, 신속하고, 안전한 방역 체계를 구현해 갈 방침이다.가장 큰 특징은 이용자 휴대폰에서 QR코드를 생성하는 기존 방식과 달리, 업장에 비치된 QR코드 스캔 방식으로 빠르고 간편한 출입인증이 가능하다는 점이다. 즉, QR코드를 여러 개 배치하면 다수가 한 장소를 이용하더라도 기다리거나 줄을 서지 않고 동시 출입인증이 가능해 방문객 편의가 향상되며, 코로나19 감염 우려 역시 줄일 수 있다. 업주 또한 별도 단말기나 앱 설치 없이 프린트된 QR코드만 비치하면 이용할 수 있어 편리하고 부담이 적다.블록체인 기술을 활용해 방문자 정보의 위변조가 불가능하다는 점도 이 시스템의 강점이다. 서비스 이용 시 개인의 신원정보 및 방문기록정보는 암호화 후 분산저장되며, 출입인증 정보는 확진자 역학조사 목적으로만 사용된다. 이용자 본인 또한 자신의 출입인증 내역을 직접 확인할 수 있다.해당 시스템은 ‘제주안심코드 앱’, 아이콘루프 DID 신원인증 서비스 ‘쯩’ 앱을 통해 DID 방식으로 발급되는 제주안심코드, ‘제주도 전용 역학조사 시스템’으로 구성된다. 우선 효과적인 시스템 운영 및 확대를 위해 제주도가 출시한 ‘제주안심코드 앱’은 별도 회원 가입 없이 업장에 비치된 QR코드를 휴대폰으로 촬영하기만 하면 간편하게 출입인증이 가능한 방식이다. 향후 출입인증뿐 아니라 방문객 대상 업장 방역실태에 대한 설문조사, 방역 정보 공유, 우수 방역업장 선정 및 안내 등 관광객들이 보다 안전한 환경에서 관광을 즐길 수 있는 다양한 자체 기능 및 콘텐츠가 추가될 예정이다.아이콘루프의 DID 신원인증 서비스 ‘쯩’ 앱을 통해서도 본 시스템을 이용할 수 있다. 앱 내 카메라로 업장에 비치된 QR코드를 촬영하면 DID를 기반으로 ‘제주안심코드’가 발급 및 저장되며, 업장 방문 시 개인정보의 노출 없이 출입인증이 가능한 방식이다. DID란 개인이 자신의 데이터를 직접 관리하는 자기주권형 인증 방식으로, 인증된 개인정보를 이용자의 휴대폰에 저장했다가 인증이 필요할 때 필요한 정보만 골라 간편히 제출하도록 해주는 블록체인 기반의 신원인증 기술이다. ‘쯩’을 통한 출입인증 시 이용자가 제3기관의 개입 없이 개인정보를 방역당국으로 직접 제출하게 함으로써 개인정보 유출 및 프라이버시 침해 위험을 줄일 수 있다.또한, ‘제주도 전용 역학조사 시스템’을 통해 확진자의 방문기록과 같은 시간대에 같은 장소를 방문한 접촉자 명단을 한 번에 신속하게 열람할 수 있음으로써, n차 감염자의 빠른 확인 및 추적이 가능하다.아이콘루프 김종협 대표는 “자사의 블록체인 기술을 적용한 ‘제주안심코드’를 통해 제주도민, 관광객 모두 안심할 수 있는 방역 체계가 구축될 수 있도록 최선을 다할 것”이라며, “코로나19로 평범하게 여겼던 일상의 많은 것들이 변하고 있는 지금, 블록체인 기술이 보다 안전하고 신뢰할 수 있는 세상을 만드는 데 일조할 수 있도록 계속해서 노력하겠다”고 덧붙였다.한편, 실명인증, 방문인증, 자격인증 등 다양한 신원인증을 제공하는 아이콘루프의 DID 신원인증 서비스 ‘쯩’은 신한은행과 함께 국내 최초로 금융권 실명인증에 DID를 적용한 데 이어 ‘제주안심코드’, ‘블록체인 기반 강원도 만성질환 통합 관리 플랫폼’ 등으로 활용 범위를 넓혀가고 있다.[이상우 기자(boan@boannews.com)]&lt;저작권자: 보안뉴스(www.boannews.com) 무단전재-재배포금지&gt; 이상우기자 기사보기 0 0 헤드라인 뉴스 클라우드 마비의 이유, 결과 그리고 대책 랜섬웨어의 발전과 진화에 맞서 IT가 반드시 기억해야 할 것들 Masscan 랜섬웨어, DB 서버 타깃 무작위 대입 공격 통해 감염 확산 이란 국영방송 해킹! 이란 지도자 과녁 표적으로 세운 이미지 노출 원격근무에 따른 기업 환경의 격변, IT와 보안은 어디에 집중해야 하나 TOP 뉴스디지털 전환 등 여러 문제를 해결하고 싶다? 어...미국 공항 웹사이트, 친러 성향 해킹 단체에 공...인텔, 엘더레이크 바이오스의 소스코드 유출 인정포티넷 제품에서 발견된 취약점, 실제 공격에 활...줌 피싱 공격 통한 마이크로소프트 익스체인지 크...아이스드아이디 멀웨어 운영자들, 전략의 다양화 ...‘제2기 KISA 대학생 영상 서포터즈’ 해단식...TTA, ‘한국 주도 글로벌 사실표준화기구 신설... 로그인 후 댓글을 입력하세요. 가장 많이 본 기사 [주간] 제2대 개인정보보호위원회 위원장에 고학수 서울대 교... Daum 사칭 ‘카카오와 계정 병합’ 이슈로 위장한... 2022년 3분기 랜섬웨어 키워드: LockBit ... [주말판] 다가오는 사이버 허리케인, 안전 구역은 ... MS 익스체인지 서버의 또 다른 제로데이 취약점 프... GlobeImposter 국내 유포... 2분기 M... [2022년 상반기 보안업계 성적표-2] 출입통제·... PHP 생태계를 위협하는 또 다른 공급망 공격의 가... 새 백도어 매기, 마이크로소프트 SQL 서버들 노리... 바이낸스 브리지, 5억 6600만 달러의 암호화폐 ... 주요 기업별 기사 “ SNS에서도 보안뉴스를 받아보세요!! ” 취약점 경고 및 보안 업데이트 [2022-10-10] Masscan 랜섬웨어, DB... [2022-10-10] 이란 국영방송 해킹! 이란 지... [2022-10-09] IT, 언론 업계 등 타깃으로... [2022-10-08] GlobeImposter 국내... [2022-10-08] Daum 사칭 ‘카카오와 계정... 보안ㆍIT산업 동향 TTA, ‘한국 주도 글로벌 사실표준화기구 ... 안랩, 다양한 행사에 친환경 요소 적극 도입... KISA, 인터넷주소분쟁조정위원회 위원 위촉 파수, 새로워진 ‘랩소디’로 문서중앙화 대체... [2022 국감] 의료기관 내 폭행... 흉... 조회순 추천순 스크랩순 1 [주말판] 다가오는 사이버 허리케인, 안전 ... 2 GlobeImposter 국내 유포... 2... 3 이란 국영방송 해킹! 이란 지도자 과녁 표적... 4 Masscan 랜섬웨어, DB 서버 타깃 무... 5 [2022 국감] 보험사 열 중 아홉, 은행... 1 Masscan 랜섬웨어, DB 서버 타깃 무... 2 랜섬웨어의 발전과 진화에 맞서 IT가 반드시... 3 이란 국영방송 해킹! 이란 지도자 과녁 표적... 4 소비자 기만하는 다크패턴 규제 시작되나 5 [유경동의 IP 인사이트] 장난 아닌 장난감... 1 무선 네트워킹 분야에서 떠오르는 새로운 개념... 2 Daum 사칭 ‘카카오와 계정 병합’ 이슈로... 3 2022년 3분기 랜섬웨어 키워드: Lock... 4 [2022 접근제어 리포트] 계정관리·통합접... 5 대한민국 디지털 전략 속 ‘사이버보안’ 정책... 설문조사 산업 전 분야의 지능화·융합화·스마트화 추세에 따라 스마트시티와 스마트공장, 스마트의료, 스마트상점 등 각 분야에서도 정보보안과 물리보안이 함께 접목되는 융합보안이 이슈가 되고 있습니다. 올해 융합보안이 가장 활발하게 적용될 분야는 어디라고 보시나요? 스마트시티 보안 스마트공장 보안(OT 보안) 스마트의료 보안 스마트상점 보안 기타(댓글로) 클라우드 마비의 이유, 결과 그리고 대책 랜섬웨어의 발전과 진화에 맞서 IT가 반드시 기억해야 ... Masscan 랜섬웨어, DB 서버 타깃 무작위 대입 ... 이란 국영방송 해킹! 이란 지도자 과녁 표적으로 세운 ... 원격근무에 따른 기업 환경의 격변, IT와 보안은 어디... 사이버 범죄자들, 지능화 기법으로 온·오프라인 결제 접... [주말판] 다가오는 사이버 허리케인, 안전 구역은 존재... GlobeImposter 국내 유포... 2분기 MY-... 회사소개| 광고안내| 이용약관| 개인정보 처리방침| 청소년 보호정책| 고객센터| 제휴안내| 관련서적| RSS 서비스| 발행인: 최정식  |  편집인: 최소영  |  청소년보호책임자: 최소영 등록번호 : 서울 아00181 | 등록연월일 : 2006년 3월 17일 | 상호 : (주)더비엔 | 사업자등록번호 : 407-86-00506 | 대표 : 최정식 주소 : 서울시 마포구 마포대로 25 (마포동, 신한디엠빌딩 13층) (우. 04167) | 전화 : 02-719-6933 | 팩스 : 02-715-8245 | E-mail : helpdesk@boannews.com 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 권 준(editor@boannews.com) Copyright ⓒ thebn Co., Ltd. All rights reserved.</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 14:45 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N3 이전 다음 제주도, 한라산‧성산일출봉 등 공영관광지 6곳 임시 폐쇄 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 사회 제주도, 한라산‧성산일출봉 등 공영관광지 6곳 임시 폐쇄 홍석준 기자 승인 2020.12.23 18:02 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 24일부터 내년 1월 3일까지 … 연말연시 특별 방역강화대책 일환 한라산 국립공원과 성산일출봉 등 세계유산본부 공영관광지 6곳이 24일부터 내년 1월 3일까지 출입이 일시 통제된다. 사진은 2018년 새해 첫 한라산 정상 해맞이 모습. /사진=제주특별자치도 [미디어제주 홍석준 기자] 오는 24일부터 내년 1월 3일까지 한라산 국립공원과 성산일출봉, 거문오름, 만장굴, 비자림 한란전시관 등 세계유산본부 소관 공영관광지 6곳에 대한 출입이 통제된다. 제주특별자치도 세계유산본부는 23일 세계유산본부 공영관광지 6곳에 대한 출입을 임시 통제한다고 23일 밝혔다. 세계유산본부는 이날 오전 제주도가 발표한 연말연시 특별방역 강화 대책에 국·공립 관광시설을 포함한 주요 관광명소 폐쇄 유도 등 관광명소 관리에 대한 내용이 포함됨에 따라 이같은 결정을 내렸다. 특히 한라산국립공원과 성산일출봉은 연말연시를 맞아 설경과 새해 일출을 감상하기 위해 많은 도민과 관광객들이 방문할 것으로 예상되기 때문에 코로나19 확산 방지를 위해 불가피하게 임시 폐쇄하기로 했다. 이에 따라 한라산과 거문오름 예약 취소에 대한 안내 문자를 발송할 예정이며, 2021년 1월 1일부터 시행하기로 했던 한라산 탐방예약제도 1월 4일부터 시작하는 것으로 연기됐다. 김대근 세계유산본부장은 “세계유산본부 소관 공영관광지 임시 폐쇄로 한라산 및 성산일출봉 방문을 미리 계획하신 분들께는 아쉬움이 있겠지만, 코로나 상황을 극복하기 위해 전 국민이 동참해야 하는 상황인만큼 적극 협조해주시길 바란다”고 전했다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 홍석준 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 6코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>제주도 하반기 우수관광사업체 20곳 지정  &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 14:38 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 하반기 우수관광사업체 20곳 지정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 제주도 하반기 우수관광사업체 20곳 지정 기자명 이은지 기자 입력 2020.12.22 10:41 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도는 2020년 하반기 우수관광사업체 신청업체 20곳을 선정했다고 22일 밝혔다. 우수관광사업체는 자율적인 경쟁을 통해 품질향상과 서비스 개선 등 경쟁력을 강화하기 위해 도가 매년 상·하반기 지정하고 있다. 도는 신청업체 27곳 중 관광지, 교통업, 숙박업, 여행업, 음식업 5개 분야를 대상으로 자격 요건을 심사 한 후 전문가 평가위원의 현장 평가결과를 바탕으로 우수관광사업체를 선정했다. 우수관광사업체 지정 기간은 내년 1월 1일부터 2022년 12월 31일까지 2년이다. 우수관광사업체로 지정된 20개 업체는 우수관광사업체 지정서와 인증패를 받게 되며 홍보지원금 80만원이 지급된다. 도 관광정보시스템과 유관기관 홈페이지, SNS(블로그, 인스타그램, 페이스북, 유튜브), 리플릿, 지도 등 홍보물을 통한 인센티브 혜택도 주어진다. 김재웅 관광국장은 "코로나19 장기화에 따른 어려운 관광사업체의 경영속에서도 우수한 관광사업체를 발굴하여 우수관광사업체 지정업체에 대한 관광객의 신뢰도를 확보하고, 선정된 업체에 대한 지원을 확대하는 방향 등 다양한 방안을 모색해 나가겠다"고 말했다. 이은지 기자 이은지 기자 ez1707@daum.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 제주대병원 권역정신응급의료센터 개소 [본사내방] 2022년 10월 11일 한경농협, 취약계층 주택용 소방시설 기증 제주, 서울대 지역균형전형 비율 2.4%...전국 최하위 제주타요렌터카, 매월 국·내외 아동에 정기 후원 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [제민포럼] 테슬라와 한라산소주 5 일본시장 활짝 제주관광 기대감속 우려도 6 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 7 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 8 장 발장 이야기 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, '5인이상 제한' 관광객 예약취소 위약금 정부에 요청 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, '5인이상 제한' 관광객 예약취소 위약금 정부에 요청 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도, '5인이상 제한' 관광객 예약취소 위약금 정부에 요청 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2020.12.22 18:35 댓글 3 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 원희룡 지사, 코로나19 '5인 이상 제한' 조치 대책회의"방역강화대책으로 인한 관광객 위약금 부담 없어야" 정부가 24일부터 '5인 이상 집합금지'를 전국적으로 시행하기로 하면서, 연말 제주지역 관광객들의 예약취소가 대거 빗발칠 것으로 예상된다. 제주특별자치도는 '5인 이상 집합금지'와 관련한 예약취소에 따른 위약금 문제를 정부 차원에서 해결해줄 것을 요청키로 했다고 22일 밝혔다. 원희룡 제주도지사는 22일 오전 제주도청 탐라홀에서 코로나19 대책 회의를 열고, 5인 이상 모임 제한 전국 확대로 인한 대책을 긴급히 논의했다. 정세균 국무총리가 이날 오전 코로나19 대응 중앙재난안전대책본부 회의에서 오는 24일부터 내년 1월 3일까지 서울시·경기도·인천시 등 수도권에 지자체 행정명령 형태로 적용하기로 한 5인 이상 집합금지를 전국으로 확대해 시행하겠다고 발표한데 따른 것이다. 제주도는 회의에서 5인 이상 모임 제한 적용 시 발생할 문제점에 대해 점검하고, 도민의 피해와 혼선을 최소화할 수 있도록 세부내용 및 홍보 방안을 논의했다. 제주도는 이번 조치로 인해 제주로 입도할 예정이었던 입도객들이 호텔 등 숙박업소에 대한 예약을 취소하면서 위약금 부담이 발생할 것으로 전망하고 있다. 원희룡 지사는  “중앙정부의 5인 이상 집합금지 조치에 따라 숙박업소에 대한 예약 취소가 속출하고 있는데 이 피해는 고스란히 숙박예약을 취소한 분들이 받고 있다”고 우려했다. 이어 “중앙정부의 조치로 피해를 보는 부분에 대해서는 중앙정부가 책임을 져야 한다”며 “중앙정부에서 전액 환불해 줄 것을 요청해달라”고 덧붙였다. 또 결혼식, 장례식 등 경조사에 대한 제한 조치에 대해서는 “예식장과 장례식장은 다중이 모이는 만큼 철저한 방역수칙 준수가 이뤄져야 한다”면서 “음식물 섭취금지는 명확하게 행정명령을 내려 단속해 나가야 한다”고 강조했다, 한편 이날 회의에서는 △대규모 종교시설에 대한 명확한 기준 마련 △보건인력 번아웃 대비 유연근무제 탄력 운영 △탐나는전 발행모집 통한 제주안심코드 홍보 △보건인력 배치 관련 도·행정시의 지속적인 협의 등에 대한 의견도 제시됐다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 '5인 이상 집합 금지' 제주도, 연말연시 코로나19 특별방역 돌입 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 3 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 정신아 2020-12-24 05:46:05 | 223.***.***.166 더보기 삭제하기 수정하기 이와중에 여행처오는 니대가리들이 잘못된거지 무슨 정부에 위약금청구를 해 새대가리들 집에좀 있으라믄 집에좀 이시라 육지것들 렌트카만보믄 오바이트나왐수다 답글쓰기 4 2 보는눈 2020-12-23 10:11:27 | 211.***.***.77 더보기 삭제하기 수정하기 제주도 cc라운딩도 3인까지 맞는거죠 답글쓰기 2 4 순발력 2020-12-23 08:33:13 | 175.***.***.214 더보기 삭제하기 수정하기 원 지사가 순발력 하나는 뛰어나지. 시의적절한 요구라고 봐진다. 당연히 봉산 요구해야지. K방역은 물 건너갔다 답글 4 4 8 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>진에어, 국제선 관광비행 운항…日·제주도 상공 돈다 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 산업 산업최신 산업/기업 유통/생활경제 패션/뷰티 음식/맛집 창업/취업 자동차 항공 중기/벤처 해양수산 진에어, 국제선 관광비행 운항…日·제주도 상공 돈다 등록 2020.12.17 01:25:00 작게 크게 16일부터 항공권 예매…면세품 구입 가능 [서울=뉴시스] 고은결 기자 = 진에어는 홈페이지와 모바일 웹, 앱에서 국제선 관광비행 항공권 예매를 시작한다고 16일 밝혔다. 진에어는 12월 24일, 25일, 31일, 1월 1일, 2일에 국제선 관광비행을 각각 운항할 예정이다. 국제선 관광비행은 해외 취항지에 착륙하지 않고 영공만 돌고 오는 항공 여행 상품이다.운항 범위가 국제 영공까지 확대되고 입국 후 격리조치·진단검사가 면제되며 면세품 구입이 가능하다. 우선 진에어는 인천공항에서 24일 오후 4시35분에 출발해 청주·대구·부산·일본 영공·제주도 상공을 거쳐 인천으로 오후 7시5분에 돌아오는 약 1400km의 노선을 운항할 예정이다. 해당 항공편 탑승객은 면세 한도 600달러 범위 내에서 기내 면세점을 비롯해 공항 면세점, 출입국장 면세점, 시내 면세점 등을 통한 면세품 구입이 가능하다. 기내 면세점은 출발 48시간 이내에 진에어 기내 면세 사이트를 통한 사전 주문만 이용 가능하다. 진에어는 기내 이벤트 특화팀 '딜라이트 지니' 소속 객실승무원들이 준비한 크리스마스 기내 음악회, OX 퀴즈 및 기내 추첨 이벤트도 진행한다. 참여 고객 중 추첨을 통해 사은품을 제공하며 24일 첫 운항편 탑승객 전원에게는 신라면세점과 함께 준비한 특별 경품을 선물한다. 국제선 관광비행 예매 고객 대상 이벤트도 진행한다. 이벤트 제휴카드 결제 시 2021년 국제선 항공권 3만원 추가 할인 쿠폰, 인천공항 내 무료 커피 이용권 혜택이 제공된다. 신라면세점 이용 고객에게는 신라멤버십 골드 등급 업그레이드, 인터넷점 전용 에스 리워즈 총 13만5000포인트, 서울점 전용 에스 리워즈 2만포인트, 신라뷰티키트 등이 제공된다 ◎공감언론 뉴시스 keg@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 권익현 군수, '세계로 웅비하는 부안 대도식 비약' 최선 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 [부고]박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 의정부 행복로서 14일 뷰티 페스티벌 열린다 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 브이원텍, LG전자와 33억 규모 공급계약 체결 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 광주 물 관리-지하시설물 중복 관리 "대책 시급"(종합) 정무위 국감… 野, 김건희 도이치 의혹에 "이복현 입장 내놔야" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 대구폴리텍대, 대구옥외광고·울산옥외광고 대상전 잇따라 수상 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 많이 본 기사 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 6내년부터 일시적 2주택자 취득 가산세 부담 완화 7서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도, 추천 웰니스관광지 신청 3곳 모두 재지정 - 전국 &gt; 기사 - 더팩트 HOME &gt; NEWS &gt; 전국 &gt; 제주 제주도, 추천 웰니스관광지 신청 3곳 모두 재지정 입력: 2020.12.16 14:45 / 수정: 2020.12.16 14:45 제주도는 한국관광공사에서 실시한 2017년과 2019년 추천 웰니스관광지를 대상으로 진행한 재지정평가에서 제주도가 신청한 3곳 모두 재선정됐다고 16일 밝혔다. / 제주도 제공WE호텔 웰니스센터·제주허브동산·취다선리조트 재지정…4곳 유지[더팩트ㅣ제주=문형필 기자] 제주특별자치도는 한국관광공사에서 실시한 2017년과 2019년 추천 웰니스관광지를 대상으로 진행한 재지정평가에서 제주도가 신청한 3곳 모두 재선정됐다고 16일 밝혔다.추천 웰니스관광지 재지정평가는 웰니스관광지 선정 후 2년 주기로 실시된다.웰니스관광은 건강과 힐링(치유)을 목적으로 관광을 떠나 스파와 휴양, 뷰티(미용), 건강관리 등을 즐기는 관광으로, 시장 규모가 크고 부가가치가 높아 전 세계적으로 각광받고 있는 관광산업이다.올해는 2017년과 2019년에 선정된 추천 웰니스관광지 32곳에 대해 지난 11월부터 12월 초까지 학계 및 업계, 여행전문가 등 외부전문가 3명으로 구성된 평가위원들의 서면 평가를 통해 총 27곳이 재지정됐다.제주도에서는 WE호텔 웰니스센터 및 제주허브동산, 취다선리조트 3곳을 신청했다.평가는 웰니스 콘텐츠 적절성, 관광객 유치 노력, 향후 운영계획의 적절성, 지역사회 연계·협력 추진 실적 등이 검토됐다.평가 결과 신청한 3곳 모두 재지정됐다.재지정된 웰니스관광지는 한국관광공사로부터 해외 인지도를 높이기 위한 홍보·마케팅과 여행상품 개발, 외국 관광객 수용 여건 개선 등을 위해 2022년까지 지원을 받게 된다.문화체육관광부와 한국관광공사는 2017년부터 ‘추천 웰니스관광지’를 선정 발표하고 있다. 전국적으로 48곳이 선정돼 운영되고 있다.제주도는 4곳이 선정돼 지원을 받고 있다.이번 재지정평가에서 제주도 관광지 3곳이 지정됨에 따라 제주도는 4곳을 유지하게 됐다.김재웅 도 관광국장은 "코로나19로 웰니스관광지가 더욱 주목받고 있어 제주도는 지역관광 활성화를 위한 핵심전략으로 웰니스관광을 육성하기 위해 많은 노력을 기울이고 있다"면서 "앞으로 콘텐츠와 수용태세를 지속 보완하고 업계 및 관광공사와 협력해 웰니스관광 프로그램을 지속 발굴·육성할 것"이라고 했다.hyejun@tf.co.kr 발로 뛰는 &lt;더팩트&gt;는 24시간 여러분의 제보를 기다립니다. ▶카카오톡: '더팩트제보' 검색 ▶이메일: jebo@tf.co.kr ▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write - 네이버 메인 더팩트 구독하고 [특종보자▶] - 그곳이 알고싶냐? [영상보기▶] AD 인기기사 실시간 TOP10 정치 경제 사회 연예</t>
+  </si>
+  <si>
+    <t>제주도, 도민·관광객 사회적 거리두기 2단계 수칙 준수 ‘양호’ - 전국 &gt; 기사 - 더팩트 HOME &gt; NEWS &gt; 전국 &gt; 제주 제주도, 도민·관광객 사회적 거리두기 2단계 수칙 준수 ‘양호’ 입력: 2020.12.19 18:12 / 수정: 2020.12.19 18:12 제주도는 18일 오전 0시부로 제주형 사회적 거리두기 2단계+α가 시행됨에 따라, 18일 오후 9시부터 도 전역에 걸쳐 거리두기 수칙 준수 여부를 집중 점검했다고 19일 밝혔다. / 제주도 제공18일 오후 9시 도·양 행정시 직원 200여 명으로 점검반 편성해 거리두기 이행상황 점검[더팩트ㅣ제주=김용덕 기자] 제주특별자치도는 18일 오전 0시부로 제주형 사회적 거리두기 2단계+α가 시행됨에 따라, 18일 오후 9시부터 도 전역에 걸쳐 거리두기 수칙 준수 여부를 집중 점검했다고 19일 밝혔다점검 결과 대부분의 도민과 관광객들이 사회적 거리두기 2단계 수칙을 준수하고 있는 것으로 확인됐다.제주도는 지난 18일 오후 9시부터 도 소통혁신정책관과 문화체육대외협력국, 일자리경제통상국 부서 및 양 행정시 직원 200여 명으로 점검반을 편성, 사회적 거리두기 2단계 시행에 따른 도민 및 관광객, 업소별 이행상황 등을 종합적으로 모니터링했다.많은 도민들이 모이는 제주시청과 대학로, 누웨모루거리에는 오후 9시 이후 편의점 등 일부 업소를 제외한 대부분의 업소들이 영업을 종료한 것으로 확인됐다.노형, 일도지구, 아라, 오라, 삼화지구도 대부분 업소에서 포장·배달판매 업소를 제외한 모든 업소들이 영업을 종료했으며 유흥시설 및 노래연습장은 대부분 영업을 종료했다.서귀포시 시내도 전반적으로 유동인구가 크게 줄었으며 중문관광단지, 혁신도시, 동명백화점 등 주요 상권 내 업소들도 모두 조기 영업종료한 것으로 파악됐다.관광객과 관광업소들도 사회적 거리두기 2단계+α 시행에 적극 동참해주고 있는 것으로 파악됐다.이번 점검에서 중문관광단지 내 거리에서는 업소들이 오후 9시 이후 대부분 문을 닫고 관광객도 길거리에 거의 없는 등 모범적으로 사회적 거리두기를 준수하고 있는 것으로 확인됐다.또한 제주도내 5성급 호텔과 휴양 콘도미니엄을 대상으로 숙박예약률을 조사한 결과, 12월 17일 기준 11월 말보다 적게는 15%, 많게는 48% 이상 숙박예약률이 급감하는 등 관광객들이 사회적 거리두기 2단계 시행에 따라 제주도 방문을 자제하고 있는 것으로 나타났다.hyejun@tf.co.kr 발로 뛰는 &lt;더팩트&gt;는 24시간 여러분의 제보를 기다립니다. ▶카카오톡: '더팩트제보' 검색 ▶이메일: jebo@tf.co.kr ▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write - 네이버 메인 더팩트 구독하고 [특종보자▶] - 그곳이 알고싶냐? [영상보기▶] AD 인기기사 실시간 TOP10 정치 경제 사회 연예</t>
+  </si>
+  <si>
+    <t>“제주도, 돌고래 관광업체의 감염병예방법 위반 단속해야” - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 “제주도, 돌고래 관광업체의 감염병예방법 위반 단속해야” 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사회 사회단체 “제주도, 돌고래 관광업체의 감염병예방법 위반 단속해야” 김동건 기자 승인 2020.12.27 17:18 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 핫핑크돌핀스는 27일 보도자료 핫핑크돌핀스가 지난 24일 오후 3시쯤 서귀포시 대정읍 무릉리 앞바다에서 촬영한 한 돌고래 선박관광업체의 선박. 핫핑크돌핀스 제공. 해양환경단체 핫핑크돌핀스는 27일 보도자료를 내고 “최근 거리두기를 지키지 않은 채 돌고래 관광을 하는 돌고래 선박관광업체가 확인되고 있어 제주도가 ‘5인 이상 사적모임 금지 특별방역’ 준수 여부에 대해 적극 단속해야 한다”고 촉구했다. 이들은 “지난 24일 오후 3시쯤 서귀포시 대정읍 무릉리 앞바다에서 모 업체의 선박 위에 20명이 거리두기를 지키지 않고 돌고래 관광을 하고 있었다”며 “제주도의 담당 공무원에 문의한 결과 ‘구체적 지침이 내려오지 않았다, 현재 이 업체에 관련 규정 준수를 당부했다’라는 답변을 들었다”고 주장했다. 단체는 “국민 모두가 방역수칙을 준수하면서 코로나19 위기 극복을 위해 노력하고 있지만 일부 돌고래 선박관광업체는 버젓이 사람들을 불러 모아 거리두기도 하지 않은 채 관광을 하고 있다”며 “제주도 공무원들의 안일한 대처가 도내 코로나19 확산 원인 중 하나”라고 강조했다. 김동건 기자  kdg@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김동건 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>확진자 폭증에 제주도 관광객 '반토막' - 머니S 본문영역 바로가기 2022.10.11 | 14:51:51 김태형 감독, 8년 만에 두산 지휘봉 내려놓는다 더보기 김태형 감독, 8년 만에 두산 지휘봉 내려놓는다2분전 온라인서 가장 관심 많은 항공사는 대한항공… 아시아나·제주항공 순4분전 DS 나서는 저지 "올해는 다르다"… 팬들에겐 "소리 질러"9분전 남양주시, 불법 주정차 단속 'CCTV 통합운영 시스템' 구축10분전 [머니S포토] 질의 답변하는 이종국 SR대표이사15분전 최대 캠핑축제 '고아웃 캠프' 가는 포인터웍스 "키즈 브랜드 유일"16분전 [머니S포토] 코레일·SR 등 2022 국회 국토위 국감17분전 광주신세계, 감홍사과 등 '가을 제철과일 모듬전'20분전 [머니S포토] 국회 국토위, 질의에 답변하는 나희승 사장21분전 불법체류자에 신종마약 유통한 태국인 일당 무더기 검거21분전 2022.10.11 기사표출기준 광고안내 독자의견 정기구독 MNB 머니바이크 하이하이 검색오픈 검색 검색 금융 은행 보험 증권섹션 재테크 정책일반 생활금융 증권 마켓 비즈니스 글로벌 재테크 가상화폐 산업 기업일반 IT 블록체인 자동차 항공물류 유통생활 정책일반 게임 의약/바이오 에너지/중공업 건설/부동산 업계일반 부동산시장동향 정책일반 재테크 생활문화 여행 맛집 출판 공연문화 교육,육아 건강 패션뷰티 이슈&amp; 창업현미경 브랜드소식 정책일반 핫이슈/트렌드 인물탐방 쇼핑몰뉴스 창업칼럼 연예 스타 드라마 예능 영화 뮤직 해외 일반 포토 스포츠 야구 해외야구 축구 해외축구 농구 배구 골프 일반 e스포츠&amp;게임 연재 정치/사회 정치 사회 지역 글로벌 인사 부고 전체 확진자 폭증에 제주도 관광객 '반토막' 머니S 홍지현 기자|입력 : 2020.12.17 13:31 기사공유 댓글남기기 폰트크게 폰트작게 프린트 지난 14일 오후 제주국제공항에서 관광객들이 이동하고 있다. 이번달 제주지역 코로나19 확진자 수가 크게 증가하면서 관광객이 1만명대로 떨어졌다. /사진=뉴스1 제주지역 신종 코로나바이러스 감염증(코로나19) 확진자가 크게 증가하면서 제주도를 찾는 관광객도 반토막이 난 것으로 확인됐다. 17일 제주도관광협회에 따르면 지난 16일 제주도 입도객 수는 1만9798명으로 집계됐다. 한달 전인 11월16일 4만811명의 절반에도 못 미치는 수치로, 일일 입도객은 51.5%나 감소했다.코로나19 여파로 지난 4월 평균 일일 입도객은 1만8075명으로 감소한 뒤 10월 3만4782명, 11월 3만8020명 등 가을 여행 시즌에 잠시 회복세를 보였다. 그러다가 전국적인 코로나19 확산세와 제주지역 확진자가 늘면서 12월 관광객이 급감한 것으로 풀이된다.제주도 등에 따르면 이번달 제주도에서는 57명의 확진자가 발생해 누적 확진자는 총 138명으로 늘었다. 지난 월별 확진자(▲2월 2명 ▲3월 7명 ▲4월 4명 ▲5월 2명 ▲6월 4명 ▲7월 7명 ▲8월 20명 ▲9월 13명 ▲10월 0명 ▲11월 22명)와 비교하면 12월 확진자 수는 폭증한 셈이다.지난 14일 도내 한 고교에서 최초 확진자(제주 120번 확진자)가 나온 이후 교내에서만 8명이 감염됐다. 또 김녕성당발 11명이 감염되는 등 집단감염이 확산하고 n차감염이 이어지는 것도 확진자 폭증 원인으로 꼽힌다.이같은 상황에서 앞으로 제주도 관광객 수는 더 줄어들 것이라는 전망이 나온다. 더구나 최근 일주일 평균 일일 확진자가 800명을 넘어서면서 정부가 거리두기 3단계 격상 검토에 들어간 것도 빼놓을 수 없다. 홍지현 ghdel59@mt.co.kr 안녕하십니까. 머니S 홍지현기자 입니다. 올바른 정보를 제공하기위해 노력하겠습니다. 이 기자의 다른기사 보기 &gt; 공유 : 공감 0% 비공감 0% &lt;저작권자 ⓒ ‘성공을 꿈꾸는 사람들의 경제 뉴스’ 머니S, 무단전재 및 재배포 금지&gt; &lt;보도자료 및 기사 제보 (moneys@mt.co.kr)&gt; [단독] 청바지 신화 '뱅뱅' 차남 소유 여주 땅 경매 처분… 낙찰자 봤더니?홍진영, 젖은 머리 셀카 '찰칵'… 자숙 후 달라진 모습큰 아들 횡령 대신 주장한 박수홍 아버지, 계좌 비밀번호도 몰랐다이은형♥강재준, 방송 중 이래도 돼?… '기습 키스'에 방청객 경악'뽀식이' 이용식 아내, 10년 전 고통 토로… "사는게 사는게 아니었다" 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 랭킹뉴스 최신뉴스 추천뉴스 [단독] 청바지 신화 '뱅뱅' 차남 소유 여주 땅 경매 처분… 낙찰자 봤더니?홍진영, 젖은 머리 셀카 '찰칵'… 자숙 후 달라진 모습큰 아들 횡령 대신 주장한 박수홍 아버지, 계좌 비밀번호도 몰랐다이은형♥강재준, 방송 중 이래도 돼?… '기습 키스'에 방청객 경악'뽀식이' 이용식 아내, 10년 전 고통 토로… "사는게 사는게 아니었다"'암투병' 엄앵란, 근황 공개… "관절수술 후 거동 불편해"박시연, '음주운전' 이후 첫 공식석상… 손담비가 남긴 댓글은?무주 생일 모임 일가족 참사… 원인은 일산화탄소 중독?'친중행보 논란' 헨리, 빨갛게 부어 버린 얼굴… 대체 무슨 일?흑인 팬 하이파이브 거부?… '조이♥' 크러쉬 "제스처 오해" 김태형 감독, 8년 만에 두산 지휘봉 내려놓는다온라인서 가장 관심 많은 항공사는 대한항공… 아시아나·제주항공 순DS 나서는 저지 "올해는 다르다"… 팬들에겐 "소리 질러"남양주시, 불법 주정차 단속 'CCTV 통합운영 시스템' 구축[머니S포토] 질의 답변하는 이종국 SR대표이사최대 캠핑축제 '고아웃 캠프' 가는 포인터웍스 "키즈 브랜드 유일"[머니S포토] 코레일·SR 등 2022 국회 국토위 국감광주신세계, 감홍사과 등 '가을 제철과일 모듬전'[머니S포토] 국회 국토위, 질의에 답변하는 나희승 사장불법체류자에 신종마약 유통한 태국인 일당 무더기 검거 '12월 결혼' 티아라 지연♥황재균, 헬스장 데이트 '달달'18세 박유진, 전 재산 3만원인데… 한달 배달료만 80만원?한 살 이하 손주에게 물려준 재산 '1000억'… 1년 새 3배 '쑥'최강희 근황, 시간당 1만원 고깃집 설거지 알바?'13세 나이 차' ♥정준과 결별설… 김유지 근황 보니?박수홍 응급실 실려갈 때… "'폭행' 父는 형수와 식사""하정우 슬퍼하더라"… 차현우♥황보라, 이미 법적 부부?'돌싱글즈3' 이소라, 안면 골절→응급실행… ♥최동환 "회복하자""아이폰을 입에?"… 지드래곤, 어마어마한 플렉스 면모YG "제니 개인사진 최초 유포자 경찰수사 의뢰" 코스피 : 2185.04 47.814:34 10/11 코스닥 : 669.74 28.7514:34 10/11 원달러 : 1435.00 22.614:34 10/11 두바이유 : 96.51 2.1514:34 10/11 금 : 1675.20 34.114:34 10/11 재테크 [법률S토리] 과세특례 활용으로 절세해 볼까 CEO [CEO 포커스] 송재준 컴투스 대표, 콘텐츠 확장 박차… '서머너즈 워', 누적 매출 3조 머니S리포트 한화, 대우조선 이어 KAI도 품을까 맛집로드 [맛집로드] 식탁 위에 펼쳐진 지속 가능한 미식, 비건 맛집 머니S 뉴스스탠드를 구독하세요 [르포] 제약바이오 채용박람회… 인사담당자가 강조한 '이것'은? 연휴 끝난 코스피, 2200선 하회… 삼성전자는 3%대 하락 "간사 간 협의해라"… 감사원 국감, 개의 '8분'만에 파행 이전 다음 이전 다음 이전 다음 이전 다음 SLIDE[머니S포토] 코레일·SR 등 2022 국회 국토위 국감 SLIDE[머니S포토] 코레일 "감사원에 통상적 절차 답변…정보보안 철저히" SLIDE[머니S포토] 국회 국토위, 질의에 답변하는 코레일 '나희승' SLIDE[머니S포토] SR 이종국 "사전정보 보안 내부적 철저히...자료제공 면밀히" SLIDE[머니S포토] 철도공단 김한영 "철도 수송분담률 대폭 높일 것" SLIDE[머니S포토] 국회 국토위, 질의에 답변하는 나희승 사장 SLIDE[머니S포토] 질의 답변하는 이종국 SR대표이사 SLIDE[머니S포토] 감사원 국감, 질의 경청하는 최재해·유병호 SLIDE[머니S포토] 최재해 감사원장 "정치적 중립지키며 공정 감사 노력" SLIDE[머니S포토] 생각에 잠긴 최재해 감사원장 SLIDE[머니S포토] 안경 고쳐쓰는 유병호 사무총장 SLIDE[머니S포토] 감사원 국정감사, 대화하는 최재해·유병호 SLIDE[머니S포토] 법제사법위원회 감사원 국정감사 SLIDE[머니S포토] '2022 국정감사' 여야 간사와 대화하는 김도읍 위원장 SLIDE[머니S포토] 감사원 국정감사, 여야 신경전으로 파행 SLIDE[머니S포토] 국정감사 증인 선서하는 최재해 감사원장 SLIDE[머니S포토] 2022 금감원 국감, 인사 나누는 이복현·강병원 SLIDE[머니S포토] 금감원 "금융권 횡령사고 및 이상 외환거래 등 신속·강력 대응" SLIDE[머니S포토] 이복현 "공매도 국민 눈높이 맞춰 형평성 있게 보완" SLIDE[머니S포토] 2022 금감원 국정감사, 의견 나누는 이복현·이명순 SLIDE[머니S포토] 금감원 이복현 "불법·불공정 거래행위 뿌리째 뽑을 것" SLIDE[머니S포토] 2022 정무위 국감, 질의 답변하는 이복현 금감원장 SLIDE[머니S포토] 금감원 "소상공·중소기업, 충격없이 연착륙하도록 지원" SLIDE[머니S포토] 이복현 "보이스피싱 등 민생침해 금융범죄 척결위해 총력" SLIDE[머니S포토] 2022 한은 국감, 마스크 고쳐쓰는 이창용 총재 SLIDE[머니S포토] 한은 이창용 "IMF 내 韓 외환보유고 적다는 인원 없어" SLIDE[머니S포토] 이창용 'PF·제2금융권 부실 현실화..."문제 될 수 있어"' SLIDE[머니S포토] 통화스와프 관련 질의 답하는 이창용 한은 총재 SLIDE[머니S포토] 한은 이창용 "물가 내년 1분기까지 5%대...하반기 내려갈듯" SLIDE[머니S포토] 2022 국회 기재위 국감, 답변하는 한은 이창용 총재 [기자수첩] 기업 혁신 막는 규제, 이제 버릴 때가 됐다 소비자 안전·환경 등과 관련된 기업 규제는 엄격해야 한다. 반면 미래로 도약하기 위한 혁신만큼은 길을 열어줘야 발전 속도가 빠르고 세계시장을 주도할 수 있다.국내 기업은 규제에 발목이 잡혀 이 같은 논리와 늘 거리가 멀었다. 언제나 현실과 동떨어진 규제가 변화의 흐름을 끊고 발전을 막았다. 편리한 서비스를 원하는 소비자만 피해를 봤다.모빌리티 플랫폼 타다 사례가 대표적이다. 최근 서울중앙지방법원 형사항소1-1부(부장판사 장찬·맹현무·김형작)는 타다를 불법 운영한 혐의로 재판에 넘겨진 이재웅 전 쏘카 대표와 쏘카의 전 자회사 브이씨앤씨(VCNC)의 박재욱 전 대표에 대한 항소심 선고 공판에서 무죄를 선고했다. 이들에게 적용됐던 혐의는 "여객자동차운수사업법" 위반이다. 타다는 운전자가 딸린 11인승 승합차를 이용자에게 빌려주는 서비스다. 이용자는 타다 서비스 이용을 위해 스마트폰 애플리케이션(앱)으로 호출하면 된다. 타다의 운영사이자 과거 쏘카의 자회사였던 VCNC는 쏘카에게 렌.. [법률S토리] 과세특례 활용으로 절세해 볼까[고수칼럼] 계속되는 금리인상 폭탄… 시장이 내딛는 발걸음 따라가야[청계광장]노동기본권에 대한 발상의 전환[기자수첩] 네카오 보험 비교·추천, 이대로 괜찮을까? 제770호한화, 세계 최고의 방위산업체를 꿈꾸다 14년 만에 대우조선 품는 한화, '한국의 록히드마틴' 정조준 김승연에서 김동관으로… 대 잇는 'M&amp;A 승부사' DNA 새 판 짜는 한화, 중심엔 '김동관 리더십' 한화, 대우조선 이어 KAI도 품을까 제769호재개발·재건축 변함없는 '복마전' [르포] 인천 숭의5구역 'SK vs 두산', 시공사 선정 난항 [르포] 신반포15차 '2차전'… 대우건설 vs 롯데건설 또 만났다 잠실 미성·크로바 벌금형 받은 '롯데건설'… 시공계약 유지할 수 있을까 제768호민간 주도 성장, 다시 뛰는 대한민국 '퍼펙트 스톰' 경고음… 돌파구는 '민간 주도 성장' 위기극복 팔 걷은 기업들… 한국 도약 이끈다 기업 끌고 정부 밀고… K-반도체, 공급망 주도권 쥔다 기업이 여는 '뉴 스페이스'… 민간 우주시대 활짝 "이번엔 K-원전"… 글로벌 시장 '정조준' 회사소개 정기구독 사이버몰이용약관 저작권규약 개인정보처리방침 광고안내 독자의견 머니앤밸류   서울시 종로구 청계천로 11(서린동, 청계한국빌딩)   제호: 머니에스   대표이사/발행인/편집인: 박정용등록번호:서울 아01082    등록일/발행일:2010.1.5    사업자등록번호 101-81-94590통신판매신고번호 제 01-1022호    호스팅사업자 주식회사 후이즈전자우편주소 moneys@mt.co.kr    Tel: 02-724-0959    청소년보호책임자: 강인귀 COPYRIGHT © MONEYS ALL RIGHTS RESERVED.</t>
+  </si>
+  <si>
+    <t>제주도, 연말연시 관광사업체 방역 특별점검 실시 - 전국 &gt; 기사 - 더팩트 HOME &gt; NEWS &gt; 전국 &gt; 제주 제주도, 연말연시 관광사업체 방역 특별점검 실시 입력: 2020.12.06 13:49 / 수정: 2020.12.06 13:49 제주도는 사회적 거리두기 격상에 따라 12월 3일부터 내년 1월 31일까지 공·항만, 2818개 관광사업체, 8대 핵심관광클러스터{제주국제공항 인근, 함덕해변, 성산일출봉-섭지코지인근, 표선해변, 서귀포시 구시가지, 중문관광단지, 협재-금능해변, 곽지-한담해변}를 대상으로 사회적 거리두기 이행사항 특별점검 및 코로나19 확산 방지를 위한 캠페인을 전개한다고 6일 밝혔다. / 제주도 제공사회적 거리두기 격상에 따른 방역수칙 이행 지도점검 및 공·항만 캠페인 전개[더팩트ㅣ제주=김용덕 기자] 제주특별자치도는 사회적 거리두기 격상에 따라 12월 3일부터 내년 1월 31일까지 공·항만, 2818개 관광사업체, 8대 핵심관광클러스터를 대상으로 사회적 거리두기 이행사항 특별점검 및 코로나19 확산 방지를 위한 캠페인을 전개한다고 6일 밝혔다.제주도는 행정시, 제주도 관광공사, 관광협회 등과 합동으로 매주 30여 명의 점검반을 편성·투입해 관광사업체 방역현황에 대한 현장 지도점검과 공항, 제주항 여객터미널, 핵심관광클러스터 등에서 마스크 착용 의무화 안내 캠페인을 벌인다.도는 관광사업체를 대상으로 △사회적 거리두기 격상에 따른 업종별 준수사항 안내 및 매뉴얼 배부 △방역관리자 지정 여부 △주기적 방역 및 이행수칙 준수 △종사자 위생관리 △출입자명부 작성 및 발열 감지 △2m 거리두기 이행 여부 등을 점검한다.특히 공항, 제주항 여객터미널은 입도객을 대상으로 마스크 착용 등 핵심방역수칙 이행에 대한 캠페인을 실시하며, 8대 핵심관광클러스터(제주국제공항 인근, 함덕해변, 성산일출봉-섭지코지인근, 표선해변, 서귀포시 구시가지, 중문관광단지, 협재-금능해변, 곽지-한담해변) 등 주요 밀집 관광지에 대해서도 현장 지도를 진행한다.또한 영세 관광사업체 대상으로 발열체크기 400여개와 소독약품 1500여 통 등을 배부해 자율 방역활동을 적극적으로 지원할 방침이다.김재웅 도 관광국장은 "코로나19로부터 도민과 관광객이 안전한 제주를 만들기 위해서는 도내 관광사업체의 자율 방역활동은 필수"라고 강조하며 "연말연시에 제주를 찾는 관광객 및 관광사업체를 대상으로 방역 현장지도 점검과 방역물품 지원활동을 지속 추진해 나갈 것"이라고 했다.hyejun@tf.co.kr 발로 뛰는 &lt;더팩트&gt;는 24시간 여러분의 제보를 기다립니다. ▶카카오톡: '더팩트제보' 검색 ▶이메일: jebo@tf.co.kr ▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write - 네이버 메인 더팩트 구독하고 [특종보자▶] - 그곳이 알고싶냐? [영상보기▶] AD 인기기사 실시간 TOP10 정치 경제 사회 연예</t>
+  </si>
+  <si>
+    <t>LG헬로비전 아라방송 지역 방송국 찾기 지역방송국 지역방송 홈 즐겨찾기 지역방송 홈 별 모양 즐겨찾기를 클릭 하시면 관심지역으로 설정됩니다. 서울 양천방송 즐겨찾기 양천방송 은평방송 즐겨찾기 은평방송 경기/인천 북인천방송 즐겨찾기 북인천방송 부천김포방송 즐겨찾기 부천김포방송 나라방송 즐겨찾기 나라방송 강원 영동방송 즐겨찾기 영동방송 영서방송 즐겨찾기 영서방송 강원방송 즐겨찾기 강원방송 충청 충남방송 즐겨찾기 충남방송 전라 전북방송 즐겨찾기 전북방송 호남방송 즐겨찾기 호남방송 아라방송 즐겨찾기 아라방송 대구/경북 대구방송 즐겨찾기 대구방송 신라방송 즐겨찾기 신라방송 영남방송 즐겨찾기 영남방송 부산/경남 해운대기장방송 즐겨찾기 해운대기장방송 금정방송 즐겨찾기 금정방송 중부산방송 즐겨찾기 중부산방송 중앙방송 즐겨찾기 중앙방송 경남/마산/하나방송 즐겨찾기 경남/마산/하나방송 가야방송 즐겨찾기 가야방송 본문 바로가기 헬로tv &amp; 인터넷 헬로모바일 헬로렌탈 아라방송 뉴스/편성 예능/교양 바로가기 헬로tv&amp; 인터넷 헬로모바일 헬로모바일다이렉트 광고다이렉트몰 일시정지 재생 방송국소개 뉴스 프로그램 편성표 광고소개 제보참여 공지사항 오늘의뉴스 | 뉴스 | 아라방송 | LG HelloVision 뉴스 지역방송 메인 지역방송 뉴스 오늘의 뉴스 뉴스 다시보기 오늘의 뉴스 광양시관광협의회-제주도 여행사 등, 관광 활성화 업무협약 구분문화교육(김신혜 기자) 2020.12.16 15:54:31 SNS 공유 facebook 공유 url 복사 광양시관광협의회가 제주도 여행사, 안내사협회 등과관광 활성화를 위한 업무협약을 체결했습니다.이번 협약으로 광양시와 초청 관계자들은관광상품 홍보와 관광객 유치 등상호 관광발전을 위해 협력하기로 했습니다.또 이날 광양시는 와인동굴, 느랭이골 등광양의 대표 자원을 홍보하고,음식관광활성화를 위해닭숯불구이, 광양불고기 등광양의 먹거리도 선보였습니다. &lt; 가장 빠르고 정확한 지역소식 ©LG헬로비전, 무단 전재·재배포금지 &gt; 여수시, 여성 온라인 일자리박람회서 42명 채용 광양시, 2020 전남 양성평등 추진 '우수' 목록 전국 주요뉴스 부천시, 아트센터 준공식·대규모 시민 대화 오늘(6일) 개최 통합메인방송 부천시, 아트센터 준공식·대규모 시민 대화 오늘(6일) 개최 공사를 마친 부천아트센터가 문을 열었습니다. 부천시는 오늘(6일) "황혼에도 출근합니다"…노인 일자리 활기 통합메인방송 "황혼에도 출근합니다"…노인 일자리 활기 시니어 근로자 70대 최병국 씨. 8개월 째 우체국에서 업무 보조 일을 2025년 초고령화…5명 중 1명이 노인 통합메인방송 2025년 초고령화…5명 중 1명이 노인 &lt;기자&gt; 경남 고성군 영현면. 지난 8월 말 기준 인구 861명이 살고 있 인천시 '치매 돌봄 특별시' 조성 통합메인방송 인천시 '치매 돌봄 특별시' 조성 &lt;기자&gt; 이곳은 인천시가 진행하고 있는 치매환자중심 돌봄 전문교육 링크공유 Close 복사 개인정보 처리방침 법적고지 이메일 무단수집 거부 정도경영 사이버신문고 고객서비스 헌장 광고문의 대표이사 송구영 | 개인정보보호책임자 이건호 | 사업자 등록번호 117-81-13423 서울특별시 마포구 월드컵북로56길 19 상암디지털드림타워 고객행복센터 1855-1000 070-7373-1002~3(무료/헬로전화 이용 시), 080-120-1012(무료/타사 전화 이용 시) © 2020 LG HelloVision All rights reserved. 본 웹사이트에 게시된 이메일 주소가 전자우편 수집 프로그램이나 그 밖의 기술적 장치를 이용하여 무단으로 수집되는 것을 거부하며, 이를 위반 시 정보통신망법에 의해 형사 처벌됨을 유념하시기 바랍니다. 게시일 : 2003년 3월 1일 닫기</t>
+  </si>
+  <si>
+    <t>제주도, 중문 관광단지 일원 하수관로 정비사업 대대적 추진 주메뉴 바로가기 본문 바로가기 2022.10.07 (금) 카카오채널 RSS 모바일보기 구름조금서울 17.3℃ 맑음제주 20.7℃ 맑음고산 17.6℃ 맑음성산 19.0℃ 맑음서귀포 20.6℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 사회 홈 사회 제주도, 중문 관광단지 일원 하수관로 정비사업 대대적 추진 임의순 기자 jejutwn@daum.net 등록 2020.12.22 10:29:20 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 제주도는 하수관로 기반시설이 노후되고 관경 협소로 불편을 겪어왔던 서귀포 중문관광단지 일원에 하수관로 정비사업을 대대적으로 추진한다고 밝혔다.서귀포 중문관광단지 일원 하수관로는 서귀포 동지역(서호근,신시가지, 법환, 강정, 용흥, 도순, 하원, 월평, 대포, 회수, 중문)에서 발생되는 하수를 색달처리장으로 이송하는 마지막 구간이며, 중문 관광단지 조성 당시 매설된 하수관 시설이 관광단지 내 테디베어뮤지엄 ~ 하얏트호텔 ~ 중문골프장 노선으로 매설됐다.이어, 서귀포 시가지의 개발 등으로 인한 하수량 증가와 관광단지 내 하얏트호텔 구간 지형이 낮아 역싸이펀 형태로 관로가 매설돼 관로 내 슬러지 퇴적 및 기존 하수관로(주철관 D400㎜) 통수단면 부족 등의 문제로 테디베어뮤지엄 삼거리에서 잦은 하수 월류가 발생했다.이에 따라 제주도 상하수도본부(본부장 현공언)는 사업의 시급성을 감안해 지난해부터 노후관로 개선을 위한 실시설계 추진 및 환경부와 재원협의를 통해 사업비를 확보했으며, 올해부터 2022년까지 사업비 249억 원을 투입해 하수관로 3.3km 구간에 대한 정비사업을 본격적으로 추진한다.하수관로 개선 주요 내용으로는 중문관광단지 내 노후된 하수관로(주철관 D400㎜)를 영구적으로 사용 가능하도록 유리섬유 복합관 D800㎜로 하수관 재질 개선 및 하수 관경을 확장한다.또한, 한국관광공사와 사전 협의를 통해 하얏트호텔부터 색달하수처리장까지 638m 구간을 자연유하 방식으로 하수관을 매설하기 위한 중문골프장 지하 27m 지점을 비굴착 추진공법(세미쉴드공법)으로 공사를 시행하는데 비굴착 방식으로는 도내에서 가장 긴 구간이다. 제주도는 이번 정비 사업이 완료되면 중문관광단지 일원 하수 월류로 인한 악취 발생 방지, 공공수역의 수질개선 및 주변 지역 환경개선의 효과를 거둘 수 있을 것으로 기대하고 있다.현공언 도 상하수도본부장은 “앞으로 노후된 하수관로 정비 등 하수처리 인프라 확충을 통해 도민 생활환경 개선과 지하수 오염 방지 효과를 체감할 수 있도록 집중 투자하는 등 사업추진에 만전을 기하겠다”고 강조했다.제주교통복지신문, JEJUTWN 임의순 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 랭킹뉴스 1 제주 서귀포 친환경 주거타운 ‘제주 레브카운티’, 대자연 풍경과 개발 수혜로 관심 2 [TW포토] 제3회 서귀포은갈치축제 현장 3 제주 오션갤러리, 시행사 보유분 특별분양 4 연예인 입주로 화제…‘한일 베라체 인비디아’ 눈길 5 제주시, 10월 시정시책공유 간부회의 개최 6 제주음협, 오는 22일 '창착오페라 「홍윤애」 하이라이트' 선보인다 7 [TW포토] 2022 제주레저힐링축제 새별오름 공연 8 제주시 동부보건소, 청소년 대상 코로나우울·스마트폰 중독 예방 홍보관 운영 9 제주 사회적기업 성장지원센터, 입주기업 설명회 및 간담회 성황리에 개최 10 서귀포시, 코로나19 취약(소농) 전업농가 영농경영비 신청기간 연장 실시간 뉴스 2022-10-07_FRI [TW포토] 제61회 탐라문화제 산지천 주변, 산지천갤러리 15:26 [TW포토] 제61회 탐라문화제 탑동광장 15:18 [TW포토] 제61회 탐라문화제 탑동해변공연장 15:08 서귀포시, 성숙한 반려동물 펫티켓 문화조성 추진’ 12:10 서귀포천문과학문화관, 신비로운 행성 목성과 토성 관측 12:08 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 07일 15시 31분 최상단으로</t>
+  </si>
+  <si>
+    <t>제주도 관광협회–블루인스보험중개(주) MOU체결 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:51 (화) 실시간 뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 코웨이, 2022 한국산업의 고객만족도 조사 침대·정수기 2개 부문 1위 선정 긴급 안보대책회의 참석한 황인권 전 육군 제2작전사령관 긴급 안보대책회의 참석한 김준형 전 국립외교원장 긴급안보대책회의 참석하는 이재명 더불어민주당 대표 더불어민주당 긴급 안보대책회의 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도 관광협회–블루인스보험중개(주) MOU체결 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도 관광협회–블루인스보험중개(주) MOU체결 기자명 오형석 기자 입력 2020.12.17 14:36 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [시사매거진/제주] 제주관광협회(회장 부동석)는 12월 15일 블루인스보험중개(주)(대표 이선권)와 업무협약을 체결하여 상호 간의 관계를 더욱 돈독히 하는 자리를 마련하였다고 전했다. 양 기관의 협력 분야는‘업무제휴사 간 제휴서비스를 신설하고, 회원 서비스 제공을 위하여 상호호혜의 원칙에 따라 적극 협력’, ‘협회의 회원사에게 제공하는 보험서비스의 안정적 제공을 위해 노력하여야 하며, 협회 사업 부분의 시장개척 및 확대를 위해 협력’, ‘보험계약 체결을 지원하기 위해서 정보제공, 홍보 등을 위하여 필요한 사항에 협력’등이 포함되어 있다. 이 자리에서 제주관광협회 부동석회장은 “양 기관은 이번 협약을 통해 모든 회원사에 전문적인 컨설팅을 통하여 보험계약 체결의 완전성을 유지함은 물론, 보험사고 발생 시 협회와 회원사를 대변해 적극 대처하는 계기가 되리라고 굳건히 믿는다. ”라고 전했다. 오형석 기자 yonsei6862@gmail.com 새시대 새언론 시사매거진 오형석 기자 yonsei6862@gmail.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 포토뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회–블루인스보험중개(주) MOU 체결 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 14:45 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회–블루인스보험중개(주) MOU 체결 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 제주도관광협회–블루인스보험중개(주) MOU 체결 기자명 임아라 기자 입력 2020.12.16 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주관광협회가 블루인스보험중개(주)와 업무협약 MOU를 체결했다. 제주관광협회는 지난 15일 보험사고에 적극 대처하기 위해 블루인스보험중개(주)와 업무협약을 체결하고 상호 간의 관계를 더욱 돈독히 하는 자리를 마련했다. 양 기관의 협력 분야는 ‘업무제휴사 간 제휴서비스를 신설하고, 회원 서비스 제공을 위해 적극 협력’, ‘협회의 회원사에게 제공하는 보험서비스의 안정적 제공을 위해 노력하며, 협회 사업 부분의 시장개척 및 확대를 위해 협력’, ‘보험계약 체결을 지원하기 위해서 정보제공, 홍보 등을 위해 필요한 사항에 협력’등이 포함돼 있다. 제주관광협회 부동석회장은 “양 기관은 이번 협약을 통해 모든 회원사에 전문적인 컨설팅을 통하여 보험계약 체결의 완전성을 유지함은 물론, 보험사고 발생 시 협회와 회원사를 대변해 적극 대처하는 계기가 되리라고 굳건히 믿는다”라고 밝혔다. 임아라 기자 ara4908@daum.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 서귀포시, 사무관 8명 승진 임용 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 포토뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 4 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 확진자 방문 관광지 5곳 포함 시장·면세점 등 공개 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도 확진자 방문 관광지 5곳 포함 시장·면세점 등 공개 등록 2020.12.02 19:09:27 작게 크게 "같은 시간대 방문한 도민·관광객 진단검사 받으라" 당부 제주시 동문시장.(뉴시스 DB)[제주=뉴시스] 강정만 기자 = 제주특별자치도가 신종 코로나 바이러스 감염증(코로나19) 확진자가 다녀간 시장과 면세점 2곳과 관광지 5곳 등 모두 7곳의 동선을 2일 추가로 공개했다. 도는 이 7곳을 같은 시간대에 관련 방문 이력이 있는 도민과 관광객들은 코로나19 진단검사를 받을 것을 당부했다. 제주도가 이날 추가로 공개한 동선은 ▲제주동문시장 ▲산방산 ▲거문오름 ▲산굼부리 ▲섭지코지 ▲성산일출봉 ▲제주공항 면세점 등 7곳이다. 확진자가 방문했던 장소별 시간은 다음과 같다. ▲제주동문시장= 11월23일 오후 5시10분~5시30분 ▲산방산= 11월24일 오후3시~4시  ▲거문오름=11월25일 오전 9시30분~10시30분 ▲산굼부리=11월25일 오전 10시41분~11시50분 ▲섭지코지 11월25일 오후2시30분~오후 4시 ▲성산일출봉=11월25일 오후 4시15분~5시30분 ▲제주공항 면세점 11월26일 오전 9시37분~9시61분 ◎공감언론 뉴시스 kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 권익현 군수, '세계로 웅비하는 부안 대도식 비약' 최선 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 [부고]박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 의정부 행복로서 14일 뷰티 페스티벌 열린다 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 브이원텍, LG전자와 33억 규모 공급계약 체결 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 광주 물 관리-지하시설물 중복 관리 "대책 시급"(종합) 정무위 국감… 野, 김건희 도이치 의혹에 "이복현 입장 내놔야" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 대구폴리텍대, 대구옥외광고·울산옥외광고 대상전 잇따라 수상 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도, 올해 주민참여 관광 꽃길 조성 우수 읍·면·동 9곳 선정 &lt; 국내 &lt; 여행/레저 &lt; 기사본문 - 디스커버리뉴스(DISCOVERYNEWS) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 여행/레저 국내 해외 골프 경제 숙박/교통 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 기획 문화 포토 포토 영상 기사검색 검색 로그인 회원가입 Updated2022-10-11 14:50 (화) 기사제보 독자투고 광고문의 본문영역 이전 기사보기 다음 기사보기 제주도, 올해 주민참여 관광 꽃길 조성 우수 읍·면·동 9곳 선정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 여행/레저 국내 제주도, 올해 주민참여 관광 꽃길 조성 우수 읍·면·동 9곳 선정 기자명 정기환 기자 입력 2020.12.14 16:04 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 - 올해 1월부터 11월까지 추진…최우수 부서에 서귀포시 남원읍 선정 사진= 제주도, 올해 주민참여 관광 꽃길 조성 우수 읍·면·동 9곳 선정[디스커버리뉴스=정기환 기자] 서귀포시 남원읍이 올해 주민참여 사계절 꽃피는 제주 만들기 사업에 최우수 부서로 선정됐다. 제주특별자치도는 올해 1월부터 11월까지 ‘2020년 주민참여 사계절 꽃피는 제주 만들기 사업’을 추진한 결과, 서귀포시 남원읍을 비롯한 총 9곳의 읍·면·동을 우수기관으로 선정했다고 밝혔다. 최우수 부서로는 서귀포시 남원읍이, 우수부문에는 제주시 조천읍, 서귀포시 안덕면이 선정됐으며 장려부문에는 제주시 애월읍, 건입동, 용담2동과 서귀포시 중앙동, 성산읍, 중문동이 최종 선정됐다. 최우수 부서로 선정된 서귀포시 남원읍은 수망사거리 및 남조로변 화단 조성 및 제주올레길 4코스를 중심으로 꽃길 가꾸기를 추진했으며 마을 안길 내 녹색쉼터공간을 마련해 관광객 및 주민들로부터 큰 호응을 얻었다. 제주시 조천읍은 서우봉 신북로변 화단 수국식재 및 교래리 가로등화분, 북촌 꽃터널 계절화를 식재해 마을주민의 녹색공간으로 탈바꿈시켰다. 서귀포시 안덕면은 산방산 주변 힐링수국거리를 조성했으며 화순항 주변을 중심으로 마을주민이 협력해 장미와 봉선화 화단을 조성하는 등 바다풍광과 어우러진 관광꽃길을 조성했다. 사계절 꽃피는 제주 만들기 사업은 도민의 자율적 참여를 통해 특색 있는 꽃길을 조성하고 품격 높은 도시로 조성함으로써 문화공동체 확대를 추진한다는 목표 아래 읍·면·동을 대상으로 추진해왔다. 이번 평가의 기준은 도시녹화로 특색 있는 꽃길 조성과 관리, 성과도 등을 평가했으며 지역특화나 민간조성, 양묘장 조성 등에는 가산점을 부여했다. 선정은 올해 상반기와 하반기 평가결과를 종합해 이뤄졌으며 선정된 기관에 대한 포상은 오는 연말에 진행될 예정이다. 문경삼 도 환경보전국장은 “우수기관 포상을 통해 읍·면·동 직원들의 사기를 진작시키는 한편 앞으로도 사계절 꽃피는 제주 만들기 사업을 지속적으로 추진해 녹색환경 조성 및 미세먼지 없는 청정 제주를 만들기 위해 노력하겠다”고 밝혔다.&lt;정기환 기자 jeong9200@discoverynews.kr&gt; 정기환 기자 jeong9200@gmail.com 다른기사 보기 저작권자 © 디스커버리뉴스(DISCOVERYNEWS) 무단전재 및 재배포 금지 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 종로구 삼일대로 461 (운현궁 SK 허브) 102동 312호 대표전화 : ☎ 070-7706-9365 (주중18시까지/토,일휴무), 070-7706-9354 팩스 : 02-749-3207 법인명 : 미디어썬 제호 : 디스커버리뉴스(DISCOVERYNEWS) 등록번호 : 서울. 아02715 등록일 : 2013-07-02 발행일 : 2013-07-10 발행·편집인 : 강성덕 편집 부국장 : 정기환 부사장 : 이명수 청소년보호책임자 : 임영규 문의 및 보도자료 : jeong9200@discoverynews.kr 디스커버리뉴스(DISCOVERYNEWS) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 디스커버리뉴스(DISCOVERYNEWS). All rights reserved. 위로 전체메뉴 전체기사 뉴스 여행/레저 전체 국내 해외 골프 경제 숙박/교통 전체 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 포토 전체 포토 영상 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 청각장애인 위해 공영관광지 수어해설영상 제공 &lt; 자치행정 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 14:20 (화) 본문영역 이전 기사보기 다음 기사보기 제주도, 청각장애인 위해 공영관광지 수어해설영상 제공 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 자치행정 제주도, 청각장애인 위해 공영관광지 수어해설영상 제공 기자명 홍석형 기자 입력 2020.12.06 09:00 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도는 청각장애인의 안전하고 편리한 제주 관광을 위해 내년부터 관광지 수어해설영상 제작 및 배포사업을 추진한다고 6일 밝혔다. 이번 사업은 청각장애인이 쉽게 접근할 수 있는 관광환경을 조성하기 위해 마련됐으며, 관광지 내 수어해설 영상이 제작되는 것은 이번이 처음이다. 해당 사업은 '제주특별자치도수어통역센터'가 사업 시행주체가 되고, 도 관광진흥기금에서 지원될 예정이다. 도내 실내공영관광지를 중심으로 대표영상과 세부 영상을 촬영하고, 해당 영상에 수어해설영상을 합성한 후 이를 QR코드로 변환해 스티커, 리플릿 등 다양한 형태로 배포할 예정이다. '제주특별자치도수어통역센터'는 올해 '제주사회복지공동모금회'의 지원을 받아 15개 공영관광지를 대상으로 수어해설영상 제작 및 배포 사업을 진행하고 있다. 15개 공영관광지는 제주목관아, 제주민속자연사박물관, 제주항일기념관, 제주4·3평화공원, 제주돌문화공원, 제주세계자연유산센터, 성산일출봉, 정방폭포, 서복전시관, 이중섭미술관, 천지연폭포, 서귀포시립 기당미술관, 제주 추사관, 제주도립 김창열미술관, 도립미술관 등이다. 또한, 내년에는 15개 공영관광지에 대한 세부 수어해설영상을 추가로 제작하고, 새로운 5개 관광지의 수어해설영상을 QR코드로 변환해 배포할 예정이다. 수어해설 영상은 해당 관광지 또는 리플릿의 QR코드를 인식하거나, 유튜브 채널 '제주농in'에서도 시청이 가능하다. 제주자치도는 이번 사업을 통해 기존 관광약자의 대상 사업에서 소외되었던 청각장애인에 대한 지원을 확대시켜 제주의 관광 수용태세를 확충시키는데 도움이 될 것으로 기대하고 있다. 제주도 관계자는 "앞으로 모든 유형의 관광약자가 제주를 안전하고 즐겁게 여행할 수 있도록 접근성 정보 확보에 힘쓰고 편의시설정비, 인식개선교육 등 다양한 콘텐츠를 개발해 나가겠다"고 밝혔다. 한편, 도에서는 관광약자의 접근 가능한 관광환경 조성을 위해 △관광약자접근성안내센터 운영 △사설관광지 관광약자 편의시설 정비지원 △관광약자를 위한 관광서비스 지원사업 등을 추진하고 있다. 홍석형 기자 hsh8116@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 투자유치 희망 기업 JDC 파트너스데이 개최 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 8 ‘경유·휘발유 값’ 전국서 가장 비싼 곳은 ‘제주도’ 1 조사 발표하면 싸집니까 ? 도 홈페이지를 방문해서 확인하는 사람이 몇명이나 있을까요 ? 2 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 3 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 4 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 5 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 6 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 7 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
   </si>
   <si>
     <t>제주도로 ‘코로나 탈출 나들이’ 간 관광객 9명 전원 확진 - 민중의소리 메뉴보기 민중의소리 검색보기 댓글보기 제주도로 ‘코로나 탈출 나들이’ 간 관광객 9명 전원 확진 페이스북 트위터 카카오톡 카카오스토리2 더보기 뉴스 전체기사 정치 사회 경제 민족 국제 문화 연예 스포츠 IT·과학 사설·칼럼 인터랙티브 이슈탐구 타임라인 그래프뉴스 인터랙티브 인터뷰 인터랙티브 기획 섹션페이지 오피니언 VOP Star 만민보 멀티미디어 만화만평 동영상 포토 방송 검색 취소 사회 제주도로 ‘코로나 탈출 나들이’ 간 관광객 9명 전원 확진 원희룡 지사 “제주도, 코로나 탈출 장소도 도피처도 아냐” 남소연 기자 nsy@vop.co.kr 발행 2020-12-03 11:18:32 수정 2020-12-03 11:18:32 이 기사는 번 공유됐습니다 제주도가 도내 관광지에 있는 돌하르방에 마스크를 씌운 모습. 자료사진.ⓒ뉴시스 '코로나 탈출 나들이'라는 관광 행사에 참여해 제주도를 방문했던 9명의 관광객이 모두 신종 코로나바이러스 감염증(코로나19) 확진 판정을 받았다. 2일 제주특별자치도에 따르면, 이 행사에 참여했던 참가자 9명이 지난달 23일부터 26일까지 3박 4일간 제주 여행을 하고 돌아간 뒤 차례로 확진 판정을 받았다. 서울 확진자 3명이 지난달 27일과 29, 30일 확진 판정을 받은 데 이어, 나머지 일행 6명도 2일 오후 추가 확진 통보를 받았다. 제주도는 '코로나 탈출 나들이' 일행의 제주 여행 동선에 대해 역학 조사에 돌입한 상태다. 관광객들의 코로나19 확진 판정이 이어지자 원희룡 지사는 이날 제주도청 기자실에서 "제주도는 코로나로부터 탈출을 위한 장소도, 코로나19의 도피처도 아니다"라고 호소했다. 원 지사는 "코로나19 유증상임에도 제주 여행을 강행하는 몰상식적인 사례에 대해서는 지속적으로 구상권을 청구하겠다"며 "제주를 사랑하는 마음은 충분히 이해하지만 제주를 사랑하시는 만큼 조금이라도 의심 증상이 있으면 제주 방문을 잠시 미뤄주시기를 바란다"고 당부했다. 남소연 기자 기자를 응원해주세요 기사 잘 보셨나요? 독자님의 작은 응원이 기자에게 큰 힘이 됩니다. 독자님의 후원금은 모두 기자에게 전달됩니다. 이시각 주요기사 많이 읽은 뉴스 페이스북 트위터 카카오톡 카카오스토리 카카오스토리2 URL 복사 https://www.vop.co.kr/A00001530639.html 닫기 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 닫기</t>
   </si>
   <si>
-    <t>제주도, 코로나19 '확진자 방문' 관광지 등 7곳 공개 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 11:14 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 코로나19 '확진자 방문' 관광지 등 7곳 공개 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도, 코로나19 '확진자 방문' 관광지 등 7곳 공개 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2020.12.02 19:00 댓글 1 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 23~26일 방문지 공개..."동일시간 방문자 검사 받으세요" 제주특별자치도는 2일 코로나19 확진자가 다녀간 7곳의 동선을 추가로 공개하고, 관련 방문 이력이 있는 도민과 관광객들은 코로나19 진단검사를 받을 것을 당부했다. 제주도가 2일 공개한 동선은 △제주동문시장(23일 오후 5시10분~30분) △산방산(24일 오후 3시~4시) △거문오름(25일 오전 8시30분~10시30분) △산굼부리(25일 오전 10시41분~11시50분) △섭지코지(25일 오후 2시30분~4시) △성산일출봉(25일 오후 4시15분~5시30분) △제주공항 면세점(26일 오전 9시37분~51분) 등 7곳이다. 확진자 동선과 겹치는 시간대 방문지를 다녀온 사람들은 코로나19 증상 발현에 관계없이 가까운 보건소를 방문해 관련 이력을 밝히고, 코로나19 진단 검사를 받으면 된다. 해당 방문지에 대한 모든 방역조치는 완료된 상태이다. 제주지역 내 공개된 동선 정보는 제주특별자치도 홈페이지 ‘코로나19 현황보기(http://www.jeju.go.kr/corona19.jsp#corona-main)’를 통해서도 확인이 가능하다. 한편, 확진환자의 이동경로는 중앙방역대책본부의 확진환자의 이동경로 등 정보공개 지침(1판)에 따라 역학적 이유, 법령상 제한, 확진자의 사생활 보호 등의 다각적 측면을 고려해 감염병 예방에 필요한 동선에 한해 공개된다. 제주도는 역학조사 완료 후 불특정 다수에게 전파될 가능성이 있거나 피해가 발생할 수 있는 모든 장소를 개인별 이동경로 형태가 아닌 목록 형태로 △지역 △장소유형 △상호명 △세부주소 △노출일시 △소독 여부를 포함해 공개하고 있다. 또한, 모든 접촉자 파악과 격리, 방역 소독 등의 조치를 모두 완료한 곳에 대해서는 사생활 보호와 해당 업소의 피해, 불필요한 사회적 혼선 등을 감안해 공개하지 않고 있다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 1 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 정의인 2020-12-03 01:04:05 | 211.***.***.234 더보기 삭제하기 수정하기 휘트니스 센타나 식당, 이미용원, 대중 목욕탕등의 폐쇄된 장소라면 동선공개 해야할 장소들인데 공항 항만등의 오픈된 공공 시설은 동선공개 해도 무의미 답글쓰기 2 0 오늘의 주요 뉴스 "제주 보전지역 정기조사 부실투성이...도의회, 재조사 요구하라" 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 7 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>수도권 코로나 확산으로 제주도 관광 '주춤' ... 평균 여행객 4만명 → 2.7만명 - Queen-여왕의 품격 × 전체기사 여성 전체 라이프 푸드 자녀교육/육아 Queen TV 퀸경제 전체 금융·경제 기업 경영 정치 전체 정치 정책 자치단체 사회·문화 전체 사회/과학 교육/문화 건강 포토 스포츠·아웃도어 전체 스포츠 트래블 산 자전거 캠핑 연예 전체 TV가이드 화제 기획특집 인터뷰 칼럼 전체 여성 재테크 이야기 생활 속 세무 생활법률 BETTER LIFE 옛날 Queen 미분류 로그인 회원가입 모바일웹 UPDATED. 2022-10-04 11:15 (화) 페이스북 트위터 RSS 포스트 블로그 여왕의 품격www.queen.co.kr 여성 라이프 푸드 자녀교육/육아 Queen TV 퀸경제 금융·경제 기업 경영 산업뉴스 정치 정치 정책 자치단체 사회·문화 사회/과학 교육/문화 건강 포토 스포츠·아웃도어 스포츠 트래블 산 자전거 캠핑 연예 TV가이드 화제 기획특집 인터뷰 칼럼 여성 재테크 이야기 생활 속 세무 생활법률 노마의 상상편지 옛날 Queen 실시간뉴스 TV·가전·PC 수요 부진 극심 ... 전자업계, 재고 줄이기에 사활 외교부 여성 고위직 6.4% 유리천장 심각 ... 167개 재외공관장 중 여성 3명 소음 없는 전기차 ... 주행 사운드 디자인에 총력 수도권 경매 낙찰률 30% '썰렁' ... 아파트 낙찰가율도 바닥 尹정부 첫 국정감사 돌입 … 이번 주(4~7일) 주요일정 [오늘의 날씨] 경기, 강원, 인천에 호우경보...출근길 빗길 유의 파리바게뜨 '프랜차이즈 타임즈 TOP 500' 38위→25위 상승 3일부터 '대한민국 수산대전' 개최 ... 최대 40% 할인 10월의 수산물에 '꽃게·갈치' 선정 ... 제철 맞아 맛과 영양 풍부 샌디에이고 가을야구 확정한 날 ... 김하성은 홈런 축포 터뜨려 [세계테마기행] ‘칠레 세계 일주’ 1부 - 비야리카 화산 여행 [EBS 한국기행] 내 고향 '영월’ 귀향해서 행복한 사람들 서울, 유엔 평가 전자정부 역량 '9위→30위' 급락 ... 서비스 제공 점수 낮아 전국 휘발유 가격 1689원 ... 하락세 당분간 지속 "청년에 임대주택과 저렴한 공공주택 공급" ... "85㎡ 이하 추첨제 도입 stop play 기사검색 검색 이전 다음 수도권 코로나 확산으로 제주도 관광 '주춤' ... 평균 여행객 4만명 → 2.7만명 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사회·문화 사회/과학 수도권 코로나 확산으로 제주도 관광 '주춤' ... 평균 여행객 4만명 → 2.7만명 김정현 기자 승인 2020.12.09 10:13 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버포스트 핀터레스트 URL복사 × 지난 11월24일 제주국제공항 국내선 도착장이 관광객들로 북적이고 있다. 2020.11.24 최근 수도권을 중심으로 신종 코로나바이러스 감염증(코로나19) 확산세가 커지면서 제주 여행을 자제하는 분위기가 감지되고 있다. 서울에 사는 B씨(34)는 직장 동료들과 계획했던 제주 여행을 취소했다. 예약했던 항공편과 숙소도 모두 환불받았다. B씨는 “제주를 오가며 비행기 안에서나 관광지에서나 코로나19 확진자와 접촉할 수도 있겠다는 생각이 들었다”며 “혹시라도 격리대상이 되면 직장까지 영향을 미칠 수 있는 일이라 고민 끝에 여행을 미루기로 했다”고 말했다. 정부에서 수도권 사회적 거리두기 조치를 강화한 점도 한몫했다. 신혼부부 C씨는 결혼 1주년을 맞아 계획했던 제주 여행을 취소했다. 8일부터 수도권 사회적 거리두기가 2.5단계로 격상되자 여행은 무리라고 판단한 것이다. C씨는 “코로나 확산세가 무섭기도 하고 수도권은 사회적 거리두기가 강화됐는데 제주로 여행하는 것은 민폐라고 생각했다”며 “주변에도 버티다가 결국 여행 계획을 취소한 사람이 많다”고 전했다. 실제 제주 여행객은 지난달 24일부터 2주 사이 감소세를 보이고 있다. 이 기간 수도권 사회적 거리두기는 2단계, 2+α단계를 거쳐 2.5단계로 강화됐다. 11월 마지막 주말(27~29일 8만6290명)과 12월 첫 번째 주말(4~6일 7만8310명) 제주를 찾은 내국인 입도객 수는 하루 평균 2만7000명대 기록했다. 이는 11월 하루 평균 내국인 입도객 수 3만7800여 명보다 1만여 명 감소한 규모다. 제주 여행객은 11월 들어 급증해 첫째, 둘째 주 주말 동안 하루 4만명 이상 입도했다. 그러다 11월26일을 기점으로 수도권을 중심으로 코로나 확진자 수가 500명을 웃돌면서 상황이 반전된 것이다. 한편 원희룡 제주도지사는 지난 7일 주간정책 조정회의에서 제주형 사회적 거리두기 1.5단계 유지를 지시하며 입도객 및 타지역을 방문한 도민에 대한 집중 차단 방역을 주문했다. 이날 원 지사는 “수능으로 인한 이동 시 취약 포인트가 발생하지 않는지를 점검하고 입도 관광객과 육지부 방문 도민에 대해 맞춤형 핀셋 방역을 해야 한다”며 “일률적 강제보다는 상황별로 대응을 하자는 것”이라고 밝혔다. [Queen 김정현 기자] 사진 뉴스1 저작권자 © Queen-여왕의 품격 무단전재 및 재배포 금지 김정현 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1임영웅, 대중가요의 역사를 다시 쓰다 2[오늘의 지자체] 보령시 3효민, 현아처럼...포인트 레드 립 4이달의 운세 - 2022년 10월 5[오늘의 지자체] 안양시 보성군 6서학개미들 주가 하락에 울고 환율 올라 웃어 ... 환차익 덕에 손실 줄어 7尹대통령 "자유 위협받을 때 국제사회 연대해 지켜야" 최신기사 TV·가전·PC 수요 부진 극심 ... 전자업계, 재고 줄이기에 사활 TV·가전·PC 수요 부진 극심 ... 전자업계, 재고 줄이기에 사활 외교부 여성 고위직 6.4% 유리천장 심각 ... 167개 재외공관장 중 여성 3명 소음 없는 전기차 ... 주행 사운드 디자인에 총력 소음 없는 전기차 ... 주행 사운드 디자인에 총력 수도권 경매 낙찰률 30% '썰렁' ... 아파트 낙찰가율도 바닥 尹정부 첫 국정감사 돌입 … 이번 주(4~7일) 주요일정 尹정부 첫 국정감사 돌입 … 이번 주(4~7일) 주요일정 [오늘의 날씨] 경기, 강원, 인천에 호우경보...출근길 빗길 유의 [오늘의 날씨] 경기, 강원, 인천에 호우경보...출근길 빗길 유의 파리바게뜨 '프랜차이즈 타임즈 TOP 500' 38위→25위 상승 파리바게뜨 '프랜차이즈 타임즈 TOP 500' 38위→25위 상승 회사소개 오시는길 정기구독신청 지난호보기 기사제보 광고문의 제휴문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 종로구 자하문로17길 12-10 (퀸B/D) 대표전화 : 02-320-6000 발행·편집인 : 전재성 월간 Queen - 등록번호 : 종로 라 00252 등록일 : 1990년 03월 10일 청소년보호책임자 : 이광희 인터넷신문 등록번호 : 서울 아 05329 등록일 : 2018년 7월 26일 사업자등록번호 : 104-81-76607 종로 통신 제0654호 Queen-여왕의 품격 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 Queen All rights reserved. mail to magazineplus2002@hotmail.com 아래로 위로</t>
-  </si>
-  <si>
-    <t>제주도 관광지 수어해설영상 제작 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항뉴스데스크제주도 관광지 수어해설영상 제작 오승철2020년 12월 06일 20시 10분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 제주도는 청각장애인이 안전하고 편리하게 관광을 즐길 수 있도록 내년부터 공영 관광지에 대한 수어 해설 영상을 제작해 배포한다고 밝혔습니다. 우선, 성산일출봉과 4.3평화공원, 도립미술관 등 15개 관광지와 박물관 등의 영상을 촬영하고 수어 해설을 넣은 뒤 QR코드로 변환해 인터넷이나 유튜브, 안내서 등에서 다양하게 이용할 수 있도록 제작할 계획입니다. 오승철ogija@jejumbc.com 최신 뉴스 뉴스투데이2022년 10월 04일 08시 13분 24초 탐라문화제 3년 만에 대면행사...10월 6일~10일2022년 10월 04일 07시 20분 00초 동료 해녀 살린 제주의용소방대원 전국대회 1위2022년 10월 04일 07시 20분 00초 현병찬 선생 제41회 세종문화상 수상자 선정2022년 10월 04일 07시 20분 00초 국토부, JDC 정원 28명 감축 추진2022년 10월 04일 07시 20분 00초 오늘 낮까지 '가을비'‥내일부터 기온 내려가 선선2022년 10월 04일 07시 20분 00초TK신공항 밀어주는데.. 가덕도는 조용2022년 10월 04일 07시 20분 00초연중기획-주민들이 주인공으로 등장(리포트)2022년 10월 04일 07시 20분 00초'사상검증 논란' 4.3 수형인 68명 오늘 선고2022년 10월 04일 07시 20분 00초4.3길 사실상 방치?2022년 10월 04일 07시 20분 00초제주도 관광지 수어해설영상 제작 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
-  </si>
-  <si>
-    <t>제주도 공영 관광지에 수어해설영상 첫 배포 &lt; 정치/행정 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-04 11:07 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 공영 관광지에 수어해설영상 첫 배포 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치/행정 제주도 공영 관광지에 수어해설영상 첫 배포 기자명 강동우 기자 입력 2020.12.04 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 청각장애인 도내 관광지 접근성·이해도 등 높일 듯 제주를 방문하는 청각장애인의 안전하고 편리한 제주관광을 위해 수어해설영상이 처음으로 제작돼 배포된다. 제주특별자치도는 4일 청각장애인의 안전하고 편리한 제주관광을 위해 내년부터 관광지 수어해설 영상 제작 및 배포사업을 추진한다고 밝혔다. 제주도의 이같은 방침은 청각장애인이 쉽게 접근할 수 있는 관광환경을 조성하기 위해 마련됐으며, 관광지 내 수어해설 영상이 제작되는 것은 이번이 처음이다. 제주도는 도내 실내 공영관광지를 중심으로 대표 영상과 세부 영상을 촬영하고, 해당 영상에 수어해설영상을 합성한 후 이를 QR코드로 변환해 스티커, 리플릿 등 다양한 형태로 배포할 예정이다. 수어해설 영상 제작사업은 ‘제주도수어통역센터’가 주관이 되고, 제주도관광진흥기금에서 지원될 예정이다. 이에따라 ‘제주도수어통역센터’는 올해 ‘제주사회복지공동모금회’의 지원을 받아 15개 공영관광지를 대상으로 수어해설영상을 배포하게 된다. 제주도는 이와함께 내년에는 15개 공영관광지에 대한 세부 수어해설영상을 추가로 제작하공, 새로운 5개 관광지의 수어해설영상을 QR코드로 변환해 배포할 예정이다. 제주도는 이번 사업을 통해 기존 관광약자의 대상 사업에서 소외되었던 청각장애인에 대한지원을 확대해 제주의 관광 수용태세를 확충시키는데 도움을 줄 것을 전망된다. 강동우 기자 kdw2312@naver.com 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 제주특산식물 세포주은행 구축 산업화 연구 ‘성과’ 제주지식재산센터 10월 무료 변리상담 지원 JDC, 내국인면세점 감정노동자 힐링 교육 대신여성의용소방대, 소화전·호스릴 비상소화장치 점검 도내 미취업청년 8365명에 42억원 재난지원금 지급 포토뉴스 제주특산식물 세포주은행 구축 산업화 연구 ‘성과’ JDC, 내국인면세점 감정노동자 힐링 교육 대신여성의용소방대, 소화전·호스릴 비상소화장치 점검 도내 미취업청년 8365명에 42억원 재난지원금 지급 인기뉴스 1 서귀포예술의전당, ‘빛이 머무는 곶’전(展) 개최 2 막바지 국비예산 확보에 더욱 진력해야 3 제주도, 중증장애인아동 돌봄 지원 960시간으로 확대 4 “제주, 누구도 가보지 않은 새로운 길 도전한다” 5 삼매봉도서관 10월 5일 재개관 6 “토지세가 너무 많이 나왔어요” 7 제주 관광 전세 버스는 달리고 싶은데… “기사가 없어요” 8 제주 4일 최대 30㎜ 비…5일 찬바람 ‘주의’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도의회 문화관광체육위원회, 2021년도 제주도 예산안 계수조정 결과 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 11:14 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도의회 문화관광체육위원회, 2021년도 제주도 예산안 계수조정 결과 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 도의회 제주도의회 문화관광체육위원회, 2021년도 제주도 예산안 계수조정 결과 편집팀 iheadline@hanmail.net 승인 2020.12.03 14:55 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 문화관광체육위 일반회계 계수조정 결과 문화관광체육위 기금 계수조정 결과 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주도의회 보건복지안전위원회, 2021년도 제주도 예산안 계수조정 결과 제주도의회 환경도시위원회, 2021년도 제주도 예산안 계수조정 결과 제주도의회 농수축경제위원회, 2021년도 제주도 예산안 계수조정 결과 제주도 예산안 상임위 계수조정 '388억' 삭감....예결위는? 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 "제주 보전지역 정기조사 부실투성이...도의회, 재조사 요구하라" 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 7 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+    <t>제주도, 코로나19 '확진자 방문' 관광지 등 7곳 공개 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 코로나19 '확진자 방문' 관광지 등 7곳 공개 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도, 코로나19 '확진자 방문' 관광지 등 7곳 공개 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2020.12.02 19:00 댓글 1 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 23~26일 방문지 공개..."동일시간 방문자 검사 받으세요" 제주특별자치도는 2일 코로나19 확진자가 다녀간 7곳의 동선을 추가로 공개하고, 관련 방문 이력이 있는 도민과 관광객들은 코로나19 진단검사를 받을 것을 당부했다. 제주도가 2일 공개한 동선은 △제주동문시장(23일 오후 5시10분~30분) △산방산(24일 오후 3시~4시) △거문오름(25일 오전 8시30분~10시30분) △산굼부리(25일 오전 10시41분~11시50분) △섭지코지(25일 오후 2시30분~4시) △성산일출봉(25일 오후 4시15분~5시30분) △제주공항 면세점(26일 오전 9시37분~51분) 등 7곳이다. 확진자 동선과 겹치는 시간대 방문지를 다녀온 사람들은 코로나19 증상 발현에 관계없이 가까운 보건소를 방문해 관련 이력을 밝히고, 코로나19 진단 검사를 받으면 된다. 해당 방문지에 대한 모든 방역조치는 완료된 상태이다. 제주지역 내 공개된 동선 정보는 제주특별자치도 홈페이지 ‘코로나19 현황보기(http://www.jeju.go.kr/corona19.jsp#corona-main)’를 통해서도 확인이 가능하다. 한편, 확진환자의 이동경로는 중앙방역대책본부의 확진환자의 이동경로 등 정보공개 지침(1판)에 따라 역학적 이유, 법령상 제한, 확진자의 사생활 보호 등의 다각적 측면을 고려해 감염병 예방에 필요한 동선에 한해 공개된다. 제주도는 역학조사 완료 후 불특정 다수에게 전파될 가능성이 있거나 피해가 발생할 수 있는 모든 장소를 개인별 이동경로 형태가 아닌 목록 형태로 △지역 △장소유형 △상호명 △세부주소 △노출일시 △소독 여부를 포함해 공개하고 있다. 또한, 모든 접촉자 파악과 격리, 방역 소독 등의 조치를 모두 완료한 곳에 대해서는 사생활 보호와 해당 업소의 피해, 불필요한 사회적 혼선 등을 감안해 공개하지 않고 있다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 1 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 정의인 2020-12-03 01:04:05 | 211.***.***.234 더보기 삭제하기 수정하기 휘트니스 센타나 식당, 이미용원, 대중 목욕탕등의 폐쇄된 장소라면 동선공개 해야할 장소들인데 공항 항만등의 오픈된 공공 시설은 동선공개 해도 무의미 답글쓰기 2 0 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>수도권 코로나 확산으로 제주도 관광 '주춤' ... 평균 여행객 4만명 → 2.7만명 - Queen-여왕의 품격 × 전체기사 여성 전체 라이프 푸드 자녀교육/육아 Queen TV 퀸경제 전체 금융·경제 기업 경영 정치 전체 정치 정책 자치단체 사회·문화 전체 사회/과학 교육/문화 건강 포토 스포츠·아웃도어 전체 스포츠 트래블 산 자전거 캠핑 연예 전체 TV가이드 화제 기획특집 인터뷰 칼럼 전체 여성 재테크 이야기 생활 속 세무 생활법률 BETTER LIFE 옛날 Queen 미분류 로그인 회원가입 모바일웹 UPDATED. 2022-10-11 14:50 (화) 페이스북 트위터 RSS 포스트 블로그 여왕의 품격www.queen.co.kr 여성 라이프 푸드 자녀교육/육아 Queen TV 퀸경제 금융·경제 기업 경영 산업뉴스 정치 정치 정책 자치단체 사회·문화 사회/과학 교육/문화 건강 포토 스포츠·아웃도어 스포츠 트래블 산 자전거 캠핑 연예 TV가이드 화제 기획특집 인터뷰 칼럼 여성 재테크 이야기 생활 속 세무 생활법률 노마의 상상편지 옛날 Queen 실시간뉴스 [2TV 저녁 생생정보 맛집] 순두부 열라면 레시피 등 소비자원, 중성세제 세척력·세탁비용 등 평가 ... 제품별 차이 크게 나타나 [생방송 오늘저녁 맛집] 해물 칼국수 연 매출 6억 대박의 맛! 노인 보행자 교통사고 사망 OECD 2배 ... 사고 1위 '경동시장앞 교차로' MLB, 'MLB컵 장학금' 설립 ... 한국 유소년 야구 발전 지원 글로벌 수소차 점유율 '현대차 60% vs 도요타 21%' 청와대 개방 5개월 만에 200만명 돌파 … 김승수 "국가유산 인정 위해 관리해야" 사진작가 김도형의 풍경- 경남 고성 [오늘의 농정] 농협유통 [오늘의 농정] 한국농수산식품유통공사 [오늘의 농정] 농촌진흥청 무역전선 '초비상' ... 무역수지 적자 10월에도 지속 [오늘의 지자체] 홍천군 [오늘의 지자체] 신안군 진천군 [오늘의 지자체] 보성군 울진군 stop play 기사검색 검색 이전 다음 수도권 코로나 확산으로 제주도 관광 '주춤' ... 평균 여행객 4만명 → 2.7만명 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사회·문화 사회/과학 수도권 코로나 확산으로 제주도 관광 '주춤' ... 평균 여행객 4만명 → 2.7만명 김정현 기자 승인 2020.12.09 10:13 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버포스트 핀터레스트 URL복사 × 지난 11월24일 제주국제공항 국내선 도착장이 관광객들로 북적이고 있다. 2020.11.24 최근 수도권을 중심으로 신종 코로나바이러스 감염증(코로나19) 확산세가 커지면서 제주 여행을 자제하는 분위기가 감지되고 있다. 서울에 사는 B씨(34)는 직장 동료들과 계획했던 제주 여행을 취소했다. 예약했던 항공편과 숙소도 모두 환불받았다. B씨는 “제주를 오가며 비행기 안에서나 관광지에서나 코로나19 확진자와 접촉할 수도 있겠다는 생각이 들었다”며 “혹시라도 격리대상이 되면 직장까지 영향을 미칠 수 있는 일이라 고민 끝에 여행을 미루기로 했다”고 말했다. 정부에서 수도권 사회적 거리두기 조치를 강화한 점도 한몫했다. 신혼부부 C씨는 결혼 1주년을 맞아 계획했던 제주 여행을 취소했다. 8일부터 수도권 사회적 거리두기가 2.5단계로 격상되자 여행은 무리라고 판단한 것이다. C씨는 “코로나 확산세가 무섭기도 하고 수도권은 사회적 거리두기가 강화됐는데 제주로 여행하는 것은 민폐라고 생각했다”며 “주변에도 버티다가 결국 여행 계획을 취소한 사람이 많다”고 전했다. 실제 제주 여행객은 지난달 24일부터 2주 사이 감소세를 보이고 있다. 이 기간 수도권 사회적 거리두기는 2단계, 2+α단계를 거쳐 2.5단계로 강화됐다. 11월 마지막 주말(27~29일 8만6290명)과 12월 첫 번째 주말(4~6일 7만8310명) 제주를 찾은 내국인 입도객 수는 하루 평균 2만7000명대 기록했다. 이는 11월 하루 평균 내국인 입도객 수 3만7800여 명보다 1만여 명 감소한 규모다. 제주 여행객은 11월 들어 급증해 첫째, 둘째 주 주말 동안 하루 4만명 이상 입도했다. 그러다 11월26일을 기점으로 수도권을 중심으로 코로나 확진자 수가 500명을 웃돌면서 상황이 반전된 것이다. 한편 원희룡 제주도지사는 지난 7일 주간정책 조정회의에서 제주형 사회적 거리두기 1.5단계 유지를 지시하며 입도객 및 타지역을 방문한 도민에 대한 집중 차단 방역을 주문했다. 이날 원 지사는 “수능으로 인한 이동 시 취약 포인트가 발생하지 않는지를 점검하고 입도 관광객과 육지부 방문 도민에 대해 맞춤형 핀셋 방역을 해야 한다”며 “일률적 강제보다는 상황별로 대응을 하자는 것”이라고 밝혔다. [Queen 김정현 기자] 사진 뉴스1 저작권자 © Queen-여왕의 품격 무단전재 및 재배포 금지 김정현 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1이달의 운세 - 2022년 10월 2이로운 곡식으로 피부를 가꾸다 '천연 곡물 팩&amp;세안제' 3'스피디 뷰티 팁' 소중한 내 시간을 위해 4'잔주름 주의보' 선선한 바람 속, 피부를 지켜라 5[오늘의 지자체] 파주시 홍천군 6'트레일러 드론', 현대차그룹 최초 레드닷 어워드 대상 7컬러와 패턴의 스타일링 최신기사 [2TV 저녁 생생정보 맛집] 순두부 열라면 레시피 등 [2TV 저녁 생생정보 맛집] 순두부 열라면 레시피 등 소비자원, 중성세제 세척력·세탁비용 등 평가 ... 제품별 차이 크게 나타나 소비자원, 중성세제 세척력·세탁비용 등 평가 ... 제품별 차이 크게 나타나 [생방송 오늘저녁 맛집] 해물 칼국수 연 매출 6억 대박의 맛! [생방송 오늘저녁 맛집] 해물 칼국수 연 매출 6억 대박의 맛! 노인 보행자 교통사고 사망 OECD 2배 ... 사고 1위 '경동시장앞 교차로' MLB, 'MLB컵 장학금' 설립 ... 한국 유소년 야구 발전 지원 MLB, 'MLB컵 장학금' 설립 ... 한국 유소년 야구 발전 지원 글로벌 수소차 점유율 '현대차 60% vs 도요타 21%' 글로벌 수소차 점유율 '현대차 60% vs 도요타 21%' 청와대 개방 5개월 만에 200만명 돌파 … 김승수 "국가유산 인정 위해 관리해야" 청와대 개방 5개월 만에 200만명 돌파 … 김승수 "국가유산 인정 위해 관리해야" 회사소개 오시는길 정기구독신청 지난호보기 기사제보 광고문의 제휴문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 종로구 자하문로17길 12-10 (퀸B/D) 대표전화 : 02-320-6000 발행·편집인 : 전재성 월간 Queen - 등록번호 : 종로 라 00252 등록일 : 1990년 03월 10일 청소년보호책임자 : 이광희 인터넷신문 등록번호 : 서울 아 05329 등록일 : 2018년 7월 26일 사업자등록번호 : 104-81-76607 종로 통신 제0654호 Queen-여왕의 품격 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 Queen All rights reserved. mail to magazineplus2002@hotmail.com 아래로 위로</t>
+  </si>
+  <si>
+    <t>제주도, 연말연시 관광업체·주요 관광지 방역 특별점검 :: 매일경제TV 뉴스 매일경제 MBN MBNGOLD 매경증권아카데미 매경이코노미 매경LUXMEN CITYLIFE GFW M-PRINT 로그인 회원가입 고객센터 TV TV홈 채널안내 편성표 전체프로그램 뉴스 뉴스홈 전체 경제&amp;금융 증권 산업 부동산 지방뉴스 증권 증권홈 현재가 투자전략 뉴스 시세 마이스탁 부동산 온에어 채널안내 편성표 통합검색 종목검색 검색 닫기 제주도, 연말연시 관광업체·주요 관광지 방역 특별점검 기사입력 2020-12-06 17:47 공항·항만, 2818개 업체, 8대 핵심 관광지 대상 매주 30명씩 투입, 내년 1월까지 진행…마스크 착용 캠페인 병행 영세업체엔 체온계·소독약 배부, 자율방역 총력 제주특별자치도청 전경 (사진=제주도 제공) [제주=매일경제TV] 연말이 되면서 제주도가 코로나19 확산 방지를 위해 주요 관광지 등을 대상으로 사회적 거리두기 이행상황 특별점검에 나섰습니다. 제주특별자치도는 사회적 거리두기 격상에 따라 지난 3일부터 내년 1월까지 주요 관광지 등을 대상으로 특별점검과 캠페인을 진행한다고 밝혔습니다. 점검 대상은 공항·항만, 2818개 관광업체와 제주국제공항, 함덕해변, 성산일출봉-섭지코지 인근, 표선해변, 서귀포시 구시가지, 중문관광단지, 협재-금능해변, 곽지-한담해변 등 8대 핵심관광클러스터입니다. 제주도는 각 시, 제주도관광공사, 관광협회 등과 합동으로 매주 30여 명의 점검반을 투입해 현장 지도점검을 실시하고, 마스크 착용 의무화 안내 캠페인을 벌일 예정입니다. 관광업체를 대상으로는 △사회적 거리두기 격상에 따른 업종별 준수사항 안내 및 매뉴얼 배부 △방역관리자 지정 여부 △주기적 방역 및 이행수칙 준수 △종사자 위생관리 △출입자명부 작성 및 발열 감지 △2m 거리두기 이행 여부 등을 점검합니다. 또 영세 업체에 체온계 400여개와 소독약품 1500여 통 등을 배부해 자율 방역활동을 적극적으로 지원할 방침입니다. 김재웅 도 관광국장은 "코로나19로부터 도민과 관광객이 안전한 제주를 만들기 위해서는 도내 관광사업체의 자율 방역활동은 필수"라며 "현장점검과 방역물품 지원활동을 지속 추진할 것"이라고 말했습니다. [ 손세준 기자 / mkssejun@mk.co.kr ] [ⓒ 매일경제TV &amp; mktv.co.kr, 무단전재 및 재배포 금지 ] 화제의 뉴스 · 코스피 2% 가까이 하락…2,193.02 개장 · [특징주] LG전자, 3분기 실적 실망에 장 초반 하락세 · 이달 10일까지 수출 20%감소…무역적자 38억 달러 · 오늘부터 일본 무비자 관광 가능…2년 7개월 만 · 오늘부터 개량백신 접종 시작 오늘의 이슈픽 인기 영상 영상아이콘 삼성전자 3분기 '어닝쇼크'…반도체 수요 감소·가격 하락에 영업이익 32... 영상아이콘 제약바이오업계, 4분기 채용문 '활짝'…종근당·대웅제약 등 80여개사, ... 영상아이콘 볼보의 수입차 3위 도약 '비밀병기' S60·V60, 동시 출격 영상아이콘 이재준 수원시장 "시민 주체 행정혁신"…취임 100일 비전 선포 게시물 삭제기준 가장 많이 본 뉴스 1우크라전에 정신 빼앗겨 '뒷마당'도 못챙기는 러시아 2돌고래 250마리 또 집단 폐사…왜 이런 일 반복될... 3"꼬박꼬박 국민연금 낸 우린 뭔가"…기초연금 40만... 4"밀크티 싸다 좋아했죠? 사실 우유 안 넣었다"…가... 5청년들 몰려 월세마저 품귀…"집도 안 보고 계약금 ... 6신라젠·코오롱티슈진 증시퇴출 여부 이달 결론 7[주간증시전망] 한국은행 금통위·미국 CPI에 주목 8[주간증시전망] 실적 부진·금리 인상에 변동성 확대... 9평택시, 고덕 삼성반도체에 8개월간 수도 요금 5배... 10"이럴거면 왜 미리 발표했나"…행복주택 공급일정 줄... 투데이 포커스 코스피 2% 가까이 하락…2,193.02 개장 [특징주] LG전자, 3분기 실적 실망에 장 초반 하락세 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1% 내려 오늘부터 개량백신 접종 시작 [오늘 날씨] 전국 출근길 5도 내외…낮 최고 21... 화제의 뉴스 제조업 4분기 경기 전망 먹구름…신산업·ICT도 부진 근로소득 상위 0.1%·평균 연봉 8억인데 세금 '0원'인 사람 8명 7년간 외국인이 국내 아파트 3만 채 구입…중국인 62% 마요네즈·국수 3개월 연속 가격 올랐다 지난해 조세회피 투자 100억 달러 넘어…해외투자 15% 차지 포토뉴스 매일경제TV 소개 이용약관 개인정보취급방침 기타운영정책 고객센터 시청자제보 광고제휴안내 RSS Family Site MBN 매일경제 매경닷컴 MBNGOLD 매경이코노미 CITYLIFE M-PRINT 방송프로그램 02-2000-4999 매일경제TV의 모든 기사 및 영상(콘텐츠)은 저작권법의 보호를 받으며, 무단 전재, 복사, 배포를 금합니다. (주)매일경제TV I 대표이사 장용수 I 서울시 중구 퇴계로 190 매경미디어센터 Copyright © 매일경제TV All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 공영 관광지에 수어해설영상 첫 배포 &lt; 정치/행정 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 14:45 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 공영 관광지에 수어해설영상 첫 배포 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치/행정 제주도 공영 관광지에 수어해설영상 첫 배포 기자명 강동우 기자 입력 2020.12.04 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 청각장애인 도내 관광지 접근성·이해도 등 높일 듯 제주를 방문하는 청각장애인의 안전하고 편리한 제주관광을 위해 수어해설영상이 처음으로 제작돼 배포된다. 제주특별자치도는 4일 청각장애인의 안전하고 편리한 제주관광을 위해 내년부터 관광지 수어해설 영상 제작 및 배포사업을 추진한다고 밝혔다. 제주도의 이같은 방침은 청각장애인이 쉽게 접근할 수 있는 관광환경을 조성하기 위해 마련됐으며, 관광지 내 수어해설 영상이 제작되는 것은 이번이 처음이다. 제주도는 도내 실내 공영관광지를 중심으로 대표 영상과 세부 영상을 촬영하고, 해당 영상에 수어해설영상을 합성한 후 이를 QR코드로 변환해 스티커, 리플릿 등 다양한 형태로 배포할 예정이다. 수어해설 영상 제작사업은 ‘제주도수어통역센터’가 주관이 되고, 제주도관광진흥기금에서 지원될 예정이다. 이에따라 ‘제주도수어통역센터’는 올해 ‘제주사회복지공동모금회’의 지원을 받아 15개 공영관광지를 대상으로 수어해설영상을 배포하게 된다. 제주도는 이와함께 내년에는 15개 공영관광지에 대한 세부 수어해설영상을 추가로 제작하공, 새로운 5개 관광지의 수어해설영상을 QR코드로 변환해 배포할 예정이다. 제주도는 이번 사업을 통해 기존 관광약자의 대상 사업에서 소외되었던 청각장애인에 대한지원을 확대해 제주의 관광 수용태세를 확충시키는데 도움을 줄 것을 전망된다. 강동우 기자 kdw2312@naver.com 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 서귀포시, 사무관 8명 승진 임용 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 포토뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 4 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 관광사업체 방역 특별 점검 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항뉴스데스크제주도, 관광사업체 방역 특별 점검 오승철2020년 12월 06일 20시 10분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 코로나19 확산에 따라 제주도는 관광공사, 관광협회 등과 합동으로 공항과 항만, 관광지, 관광 업소를 대상으로 내년 1월까지 방역 점검을 벌입니다. 관광객들이 많이 찾는 공항과 성산일출봉, 중문관광단지, 협재해수욕장 등에서 마스크 착용을 홍보하고 실내 관광업소에서는 주기적인 방역 소독과 출입자 명부 작성, 발열 검사 여부 등을 집중 점검합니다. 또, 영세 관광 업체에는 발열 검사기와 소독 약품을 배부할 방침입니다. 오승철ogija@jejumbc.com 최신 뉴스 뉴스투데이2022년 10월 11일 08시 31분 35초개교 100년 넘은 학교도 저출산으로 학생수 급감2022년 10월 11일 07시 20분 00초 고질체납차량·비과세 감면차량 일제 조사2022년 10월 11일 07시 20분 00초 홍해삼·전복 수산종자 91만 마리 방류2022년 10월 11일 07시 20분 00초휘발류보다 비싼 경유..디젤 차량 등록 첫 감소2022년 10월 11일 07시 20분 00초제주 해녀 10년 동안 1천200여 명 감소2022년 10월 11일 07시 20분 00초 오늘 맑고 찬바람 강해 쌀쌀‥내일 아침기온 뚝2022년 10월 11일 07시 20분 00초강원영동) 고향사랑기부금제 내년 도입2022년 10월 11일 07시 20분 00초(인터뷰)재일제주인 연구에 평생2022년 10월 11일 07시 20분 00초연중기획-마을공동체가 여행사업에 참여(리포트)2022년 10월 11일 07시 20분 00초제주도, 관광사업체 방역 특별 점검 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
+  </si>
+  <si>
+    <t>제주도 관광지 수어해설영상 제작 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항뉴스데스크제주도 관광지 수어해설영상 제작 오승철2020년 12월 06일 20시 10분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 제주도는 청각장애인이 안전하고 편리하게 관광을 즐길 수 있도록 내년부터 공영 관광지에 대한 수어 해설 영상을 제작해 배포한다고 밝혔습니다. 우선, 성산일출봉과 4.3평화공원, 도립미술관 등 15개 관광지와 박물관 등의 영상을 촬영하고 수어 해설을 넣은 뒤 QR코드로 변환해 인터넷이나 유튜브, 안내서 등에서 다양하게 이용할 수 있도록 제작할 계획입니다. 오승철ogija@jejumbc.com 최신 뉴스 뉴스투데이2022년 10월 11일 08시 31분 35초개교 100년 넘은 학교도 저출산으로 학생수 급감2022년 10월 11일 07시 20분 00초 고질체납차량·비과세 감면차량 일제 조사2022년 10월 11일 07시 20분 00초 홍해삼·전복 수산종자 91만 마리 방류2022년 10월 11일 07시 20분 00초휘발류보다 비싼 경유..디젤 차량 등록 첫 감소2022년 10월 11일 07시 20분 00초제주 해녀 10년 동안 1천200여 명 감소2022년 10월 11일 07시 20분 00초 오늘 맑고 찬바람 강해 쌀쌀‥내일 아침기온 뚝2022년 10월 11일 07시 20분 00초강원영동) 고향사랑기부금제 내년 도입2022년 10월 11일 07시 20분 00초(인터뷰)재일제주인 연구에 평생2022년 10월 11일 07시 20분 00초연중기획-마을공동체가 여행사업에 참여(리포트)2022년 10월 11일 07시 20분 00초제주도 관광지 수어해설영상 제작 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
+  </si>
+  <si>
+    <t>제주도의회 문화관광체육위원회, 2021년도 제주도 예산안 계수조정 결과 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도의회 문화관광체육위원회, 2021년도 제주도 예산안 계수조정 결과 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 도의회 제주도의회 문화관광체육위원회, 2021년도 제주도 예산안 계수조정 결과 편집팀 iheadline@hanmail.net 승인 2020.12.03 14:55 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 문화관광체육위 일반회계 계수조정 결과 문화관광체육위 기금 계수조정 결과 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주도의회 보건복지안전위원회, 2021년도 제주도 예산안 계수조정 결과 제주도의회 환경도시위원회, 2021년도 제주도 예산안 계수조정 결과 제주도의회 농수축경제위원회, 2021년도 제주도 예산안 계수조정 결과 제주도 예산안 상임위 계수조정 '388억' 삭감....예결위는? 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
   </si>
   <si>
     <t>감귤의 계절 겨울, 제주도관광협회 탐나오에선 '감귤파티 빅 쓰리'가 한창 TtL News 티티엘뉴스 Login | Join HOME. 트렌드 이슈. 산업 | 경제 | 정책. 국내여행 | 레저. 해외여행 | 레저. 엔터테인먼트. 라이프재테크. News Category 뉴스 카테고리 트렌드 이슈. 산업 | 경제 | 정책. 국내여행 | 레저. 해외여행 | 레저. 엔터테인먼트. 라이프재테크. Home 국내여행 | 레저 전체보기 여행지 테마|즐길거리 골프/레저 맛집 호텔/리조트 축제/공연/이벤트 국내여행팁 English news 목록 감귤의 계절 겨울, 제주도관광협회 탐나오에선 '감귤파티 빅 쓰리'가 한창 2020-12-14 01:14:39														 | 편성희 기자 [티티엘뉴스] 겨울에 싱싱하게 맛볼 수 있는 대표적인 과일은 감귤이다. '감귤' 하면 제주도. 특히 올해는 코로나19의 확산으로 인해 해외여행 대신 제주도를 찾는 사람들이 늘며 감귤 체험, 감귤 시식 등에 대한 관심도 더 늘어나는 추세를 보이고 있다. ▲제주 애월 감귤농장 중 제주특별자치도관광협회(이하 제주도관광협회)는 이 같은 추세에 맞춰 제주여행 공정 플랫폼 '탐나오'에서 '감귤파티 빅(Big)3 프로모션'을 진행 중이라고 전했다. 최근 수도권을 중심으로 코로나19가 대유행으로까지 확산하고 있어 사회적 거리두기 단계가 높아지고 있지만, 대면 체험 외에도 농장 직송 무료 배송 기획전과 과거의 감귤 체험 사진을 인스타그램에 인증해 추억을 즐기는 비대면 프로모션도 함께 계획해 참가하는데 지장이 없다. 탐나오의 감귤파티 빅3는 다음과 같다. 01. 감귤 무료배송 기획전 + 엘포인트 추가 적립 엘포인트(L.POINT) 회원을 대상으로 12월24일까지 진행하는 기획전이다. 기간 내 탐나오에서 특산품 및 기념품을 구입하면 엘포인트를 3배 적립해준다. 협회 측은 "맛있는 제철 감귤을 무료배송으로 저렴하게 먹고 엘포인트 추가적립을 받을 수 있다"고 소개했다. 02. 감귤 따기 농장체험 기획전 이벤트 기간 중 탐나오에서 구매한 고객들이 제주를 방문하면 애월 항몽유적지 감귤밭에서 무료로 감귤 체험을 할 수 있다. 관광지와 숙박고객 대상의 감귤체험 상품들도 소개돼 있어, 원하는 날짜와 장소에서 맛있는 감귤을 따서 시식해보는 즐거운 추억 만들기에 추천한다고 협회 측은 전했다. 03. 인스타그램에 제주감귤 사진 올리는 SNS홍보 이벤트 탐나오 감귤파티 1, 2의 내용들을 인스타그램에 소개하는 이벤트다. 감귤 컨셉 사진과 함께 무료배송 기획전이나 제주 감귤체험 등 감귤파티 기획전의 느낌을 자유롭게 소개하면 된다. 탐나오의 인스타그램 계정을 팔로우 하고 인물 태그와 해시태그 #제주감귤탐나오감귤 #제주여행탐나오 기입은 필수. 추첨을 통해 애플워치SE, 한라봉 등을 증정한다. '탐나오'는 제주특별자치도가 지원하고 제주도관광협회가 운영하는 제주여행 전문 온라인 예약서비스로, 도내 사업체의 온라인 홍보와 판매를 돕고, 마진을 최소화하여 여행객에게 혜택이 돌아갈 수 있는 '상생 비즈니스'로 인정받고 있다. 올해 초에는 코로나19로 인해 큰 피해를 입은 관광산업을 위해 착한 수수료 운동, 배송상품 착한할인 프로모션, 기부객실 이벤트 등 사업체 수익환원 활동을 지속 진행해왔다. 여름철에는 '안전한 제주관광 빅 할인이벤트'로 여행객들의 마스크 착용 등 안전 수칙을 고지하고 있다. 최근 과학기술정보통신부 “굿콘텐츠 어워드” 우수상을 수상하기도 했다. 탐나오에서는 제주도 항공권, 선박 승선권, 숙박, 렌트카, 관광레저, 마을체험, 맛집, 특산품, 기념품 등을 구매할 수 있다. 편성희 기자 psh4608@ttlnews.com 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 관련기사 에어부산 유상증자 흥행··· 일반공모 청약 경쟁률 627대1 우상호 서울시장 출사표 "관광레저·문화산업 과감한 투자" 대한민국 테마여행 10선의 금강백제권역 이색투어 [비주얼 뉴스] 고생한 수험생들 즐겨라! 여행부터 문화 등 수험 이벤트 모음 제주도관광협회 공정 판매 플랫폼 '탐나오', 20일까지 무료 감귤 따기 체험 등 감사이벤트 진행 국내 면세점, 무착륙 해외 관광비행객 겨냥 프로모션 적극 전개 목록 엔터테인먼트 트렌드 이슈 관광항공인&amp;인터뷰 회사소개 ｜ 광고·제휴문의｜ 회원약관｜ 개인정보취급방침｜ 기사제보 | (주)여심 | 서울, 아03649 | 등록일자: 2015년 3월 25일 | 제호: 트래블투라이프(Travel to Lifestyle·티티엘뉴스) | 발행·편집인: 편성희 | 편집장: 정연비 | 청소년보호책임자: 편성희 | 발행일자: 2015년 1월 5일 편집/제작국: 02)6354-4608, ttlnews@ttlnews.com 광고/콘텐츠사업국: 02)6354-4609, ads@ttlnews.com 서울특별시 종로구 세종대로 149 광화문빌딩 20층 HJBC 2134호 티티엘뉴스는 인터넷신문위원회의 기사 및 광고부문 자율규약 준수를 동의한 서약사입니다. 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 정연비 02-6354-4608 ttlnews@ttlnews.com 티티엘뉴스의 모든 콘텐츠는 저작권법의 보호를 받은바, 무단 전재·복사·배포 등을 금합니다. Copyright by TtL news × 유투브 동영상 삽입 가이드 삽입하고자 하는 유투브 동영상의 페이지로 접속하신 후에, 동영상 밑에 있는 '공유' 버튼을 누릅니다. '공유'버튼을 누르면 나오는 탭들 중에 '소스코드'를 선택하시고 해당 소스코드를 복사하신 후 게시판에 붙여넣기 합니다. 닫기 × 뉴스 검색 닫기</t>
@@ -434,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -455,9 +599,6 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
@@ -467,7 +608,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -478,7 +619,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -489,7 +630,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -499,9 +640,6 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
@@ -510,6 +648,9 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
@@ -519,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -530,7 +671,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -541,7 +682,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -552,7 +693,334 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
